--- a/raw_data/20200818_saline/20200818_Sensor0_Test_49.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_49.xlsx
@@ -1,750 +1,1166 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5719FDC-B491-4C2C-A2E3-0F56DA2F7900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>43202.939583</v>
+        <v>43202.939582999999</v>
       </c>
       <c r="B2" s="1">
         <v>12.000817</v>
       </c>
       <c r="C2" s="1">
-        <v>910.707000</v>
+        <v>910.70699999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-175.036000</v>
+        <v>-175.036</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>43213.391244</v>
+        <v>43213.391243999999</v>
       </c>
       <c r="G2" s="1">
-        <v>12.003720</v>
+        <v>12.00372</v>
       </c>
       <c r="H2" s="1">
-        <v>924.780000</v>
+        <v>924.78</v>
       </c>
       <c r="I2" s="1">
-        <v>-150.384000</v>
+        <v>-150.38399999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>43223.810734</v>
+        <v>43223.810733999999</v>
       </c>
       <c r="L2" s="1">
-        <v>12.006614</v>
+        <v>12.006614000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>944.780000</v>
+        <v>944.78</v>
       </c>
       <c r="N2" s="1">
-        <v>-111.148000</v>
+        <v>-111.148</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>43234.318944</v>
+        <v>43234.318943999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>12.009533</v>
+        <v>12.009532999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>951.585000</v>
+        <v>951.58500000000004</v>
       </c>
       <c r="S2" s="1">
-        <v>-98.338500</v>
+        <v>-98.338499999999996</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>43245.241841</v>
+        <v>43245.241841000003</v>
       </c>
       <c r="V2" s="1">
-        <v>12.012567</v>
+        <v>12.012567000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>958.587000</v>
+        <v>958.58699999999999</v>
       </c>
       <c r="X2" s="1">
-        <v>-86.930500</v>
+        <v>-86.930499999999995</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>43255.632532</v>
+        <v>43255.632532000003</v>
       </c>
       <c r="AA2" s="1">
-        <v>12.015453</v>
+        <v>12.015453000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>966.796000</v>
+        <v>966.79600000000005</v>
       </c>
       <c r="AC2" s="1">
-        <v>-79.266300</v>
+        <v>-79.266300000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>43266.224103</v>
       </c>
       <c r="AF2" s="1">
-        <v>12.018396</v>
+        <v>12.018395999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>972.292000</v>
+        <v>972.29200000000003</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.584400</v>
+        <v>-79.584400000000002</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>43276.673817</v>
+        <v>43276.673817000003</v>
       </c>
       <c r="AK2" s="1">
         <v>12.021298</v>
       </c>
       <c r="AL2" s="1">
-        <v>980.711000</v>
+        <v>980.71100000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.916000</v>
+        <v>-87.915999999999997</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>43287.484617</v>
+        <v>43287.484617000002</v>
       </c>
       <c r="AP2" s="1">
-        <v>12.024301</v>
+        <v>12.024300999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>990.160000</v>
+        <v>990.16</v>
       </c>
       <c r="AR2" s="1">
-        <v>-103.217000</v>
+        <v>-103.217</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>43298.747274</v>
+        <v>43298.747274000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>12.027430</v>
+        <v>12.027430000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1001.720000</v>
+        <v>1001.72</v>
       </c>
       <c r="AW2" s="1">
-        <v>-125.084000</v>
+        <v>-125.084</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>43308.900381</v>
+        <v>43308.900380999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>12.030250</v>
+        <v>12.030250000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1011.440000</v>
+        <v>1011.44</v>
       </c>
       <c r="BB2" s="1">
-        <v>-144.065000</v>
+        <v>-144.065</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>43319.564369</v>
       </c>
       <c r="BE2" s="1">
-        <v>12.033212</v>
+        <v>12.033212000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1056.840000</v>
+        <v>1056.8399999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-229.922000</v>
+        <v>-229.922</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>43330.159441</v>
+        <v>43330.159441000003</v>
       </c>
       <c r="BJ2" s="1">
-        <v>12.036155</v>
+        <v>12.036155000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1136.500000</v>
+        <v>1136.5</v>
       </c>
       <c r="BL2" s="1">
-        <v>-368.109000</v>
+        <v>-368.10899999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>43341.233090</v>
+        <v>43341.233090000002</v>
       </c>
       <c r="BO2" s="1">
-        <v>12.039231</v>
+        <v>12.039230999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1268.500000</v>
+        <v>1268.5</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-582.381000</v>
+        <v>-582.38099999999997</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>43352.402996</v>
+        <v>43352.402995999997</v>
       </c>
       <c r="BT2" s="1">
         <v>12.042334</v>
       </c>
       <c r="BU2" s="1">
-        <v>1417.600000</v>
+        <v>1417.6</v>
       </c>
       <c r="BV2" s="1">
-        <v>-812.200000</v>
+        <v>-812.2</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>43363.363590</v>
+        <v>43363.363590000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>12.045379</v>
+        <v>12.045379000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1581.130000</v>
+        <v>1581.13</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1052.460000</v>
+        <v>-1052.46</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>43374.015175</v>
       </c>
       <c r="CD2" s="1">
-        <v>12.048338</v>
+        <v>12.048337999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1997.130000</v>
+        <v>1997.13</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1615.680000</v>
+        <v>-1615.68</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>43203.344777</v>
+        <v>43203.344776999998</v>
       </c>
       <c r="B3" s="1">
-        <v>12.000929</v>
+        <v>12.000928999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>910.687000</v>
+        <v>910.68700000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-175.016000</v>
+        <v>-175.01599999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>43213.735964</v>
@@ -753,178 +1169,178 @@
         <v>12.003816</v>
       </c>
       <c r="H3" s="1">
-        <v>924.840000</v>
+        <v>924.84</v>
       </c>
       <c r="I3" s="1">
-        <v>-150.129000</v>
+        <v>-150.12899999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>43224.195599</v>
+        <v>43224.195598999999</v>
       </c>
       <c r="L3" s="1">
-        <v>12.006721</v>
+        <v>12.006721000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>944.964000</v>
+        <v>944.96400000000006</v>
       </c>
       <c r="N3" s="1">
-        <v>-110.969000</v>
+        <v>-110.96899999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>43235.050046</v>
+        <v>43235.050045999997</v>
       </c>
       <c r="Q3" s="1">
         <v>12.009736</v>
       </c>
       <c r="R3" s="1">
-        <v>951.500000</v>
+        <v>951.5</v>
       </c>
       <c r="S3" s="1">
-        <v>-98.322900</v>
+        <v>-98.322900000000004</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>43245.574656</v>
+        <v>43245.574655999997</v>
       </c>
       <c r="V3" s="1">
-        <v>12.012660</v>
+        <v>12.01266</v>
       </c>
       <c r="W3" s="1">
-        <v>958.665000</v>
+        <v>958.66499999999996</v>
       </c>
       <c r="X3" s="1">
-        <v>-86.847200</v>
+        <v>-86.847200000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>43256.023410</v>
+        <v>43256.023410000002</v>
       </c>
       <c r="AA3" s="1">
-        <v>12.015562</v>
+        <v>12.015561999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>966.779000</v>
+        <v>966.779</v>
       </c>
       <c r="AC3" s="1">
-        <v>-79.211900</v>
+        <v>-79.2119</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>43266.585226</v>
+        <v>43266.585226000003</v>
       </c>
       <c r="AF3" s="1">
-        <v>12.018496</v>
+        <v>12.018496000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>972.253000</v>
+        <v>972.25300000000004</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.569900</v>
+        <v>-79.569900000000004</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>43277.372216</v>
+        <v>43277.372216000003</v>
       </c>
       <c r="AK3" s="1">
         <v>12.021492</v>
       </c>
       <c r="AL3" s="1">
-        <v>980.705000</v>
+        <v>980.70500000000004</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.884700</v>
+        <v>-87.884699999999995</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>43288.164136</v>
+        <v>43288.164135999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>12.024490</v>
+        <v>12.02449</v>
       </c>
       <c r="AQ3" s="1">
-        <v>990.170000</v>
+        <v>990.17</v>
       </c>
       <c r="AR3" s="1">
-        <v>-103.166000</v>
+        <v>-103.166</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>43298.857883</v>
+        <v>43298.857882999997</v>
       </c>
       <c r="AU3" s="1">
-        <v>12.027461</v>
+        <v>12.027461000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1001.720000</v>
+        <v>1001.72</v>
       </c>
       <c r="AW3" s="1">
-        <v>-125.130000</v>
+        <v>-125.13</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>43309.258028</v>
+        <v>43309.258027999997</v>
       </c>
       <c r="AZ3" s="1">
-        <v>12.030349</v>
+        <v>12.030348999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1011.410000</v>
+        <v>1011.41</v>
       </c>
       <c r="BB3" s="1">
-        <v>-144.081000</v>
+        <v>-144.08099999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>43319.926480</v>
+        <v>43319.926480000002</v>
       </c>
       <c r="BE3" s="1">
         <v>12.033313</v>
       </c>
       <c r="BF3" s="1">
-        <v>1056.840000</v>
+        <v>1056.8399999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-229.931000</v>
+        <v>-229.93100000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>43330.553232</v>
+        <v>43330.553231999998</v>
       </c>
       <c r="BJ3" s="1">
         <v>12.036265</v>
       </c>
       <c r="BK3" s="1">
-        <v>1136.420000</v>
+        <v>1136.42</v>
       </c>
       <c r="BL3" s="1">
-        <v>-368.077000</v>
+        <v>-368.077</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>43341.655714</v>
@@ -933,75 +1349,75 @@
         <v>12.039349</v>
       </c>
       <c r="BP3" s="1">
-        <v>1268.420000</v>
+        <v>1268.42</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-582.441000</v>
+        <v>-582.44100000000003</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>43352.857331</v>
+        <v>43352.857330999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>12.042460</v>
+        <v>12.04246</v>
       </c>
       <c r="BU3" s="1">
-        <v>1417.590000</v>
+        <v>1417.59</v>
       </c>
       <c r="BV3" s="1">
-        <v>-812.148000</v>
+        <v>-812.14800000000002</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>43363.523797</v>
+        <v>43363.523797000002</v>
       </c>
       <c r="BY3" s="1">
         <v>12.045423</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1581.130000</v>
+        <v>1581.13</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1052.400000</v>
+        <v>-1052.4000000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>43374.608392</v>
+        <v>43374.608392000002</v>
       </c>
       <c r="CD3" s="1">
-        <v>12.048502</v>
+        <v>12.048501999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1997.100000</v>
+        <v>1997.1</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1613.740000</v>
+        <v>-1613.74</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>43203.685069</v>
+        <v>43203.685068999999</v>
       </c>
       <c r="B4" s="1">
-        <v>12.001024</v>
+        <v>12.001023999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>910.760000</v>
+        <v>910.76</v>
       </c>
       <c r="D4" s="1">
-        <v>-175.055000</v>
+        <v>-175.05500000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>43214.424411</v>
@@ -1010,43 +1426,43 @@
         <v>12.004007</v>
       </c>
       <c r="H4" s="1">
-        <v>924.695000</v>
+        <v>924.69500000000005</v>
       </c>
       <c r="I4" s="1">
-        <v>-150.384000</v>
+        <v>-150.38399999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>43224.887020</v>
+        <v>43224.887020000002</v>
       </c>
       <c r="L4" s="1">
-        <v>12.006913</v>
+        <v>12.006913000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>944.791000</v>
+        <v>944.79100000000005</v>
       </c>
       <c r="N4" s="1">
-        <v>-110.906000</v>
+        <v>-110.90600000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>43235.399230</v>
+        <v>43235.399230000003</v>
       </c>
       <c r="Q4" s="1">
         <v>12.009833</v>
       </c>
       <c r="R4" s="1">
-        <v>951.523000</v>
+        <v>951.52300000000002</v>
       </c>
       <c r="S4" s="1">
-        <v>-98.286500</v>
+        <v>-98.286500000000004</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>43245.920866</v>
@@ -1055,420 +1471,420 @@
         <v>12.012756</v>
       </c>
       <c r="W4" s="1">
-        <v>958.683000</v>
+        <v>958.68299999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-86.913200</v>
+        <v>-86.913200000000003</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>43256.375570</v>
+        <v>43256.375569999997</v>
       </c>
       <c r="AA4" s="1">
-        <v>12.015660</v>
+        <v>12.01566</v>
       </c>
       <c r="AB4" s="1">
-        <v>966.771000</v>
+        <v>966.77099999999996</v>
       </c>
       <c r="AC4" s="1">
-        <v>-79.257100</v>
+        <v>-79.257099999999994</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>43267.239412</v>
+        <v>43267.239412000003</v>
       </c>
       <c r="AF4" s="1">
         <v>12.018678</v>
       </c>
       <c r="AG4" s="1">
-        <v>972.209000</v>
+        <v>972.20899999999995</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.515900</v>
+        <v>-79.515900000000002</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>43277.754103</v>
+        <v>43277.754102999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>12.021598</v>
+        <v>12.021597999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>980.700000</v>
+        <v>980.7</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.911000</v>
+        <v>-87.911000000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>43288.570856</v>
+        <v>43288.570855999998</v>
       </c>
       <c r="AP4" s="1">
-        <v>12.024603</v>
+        <v>12.024603000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>990.147000</v>
+        <v>990.14700000000005</v>
       </c>
       <c r="AR4" s="1">
-        <v>-103.214000</v>
+        <v>-103.214</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>43299.203593</v>
+        <v>43299.203592999998</v>
       </c>
       <c r="AU4" s="1">
         <v>12.027557</v>
       </c>
       <c r="AV4" s="1">
-        <v>1001.730000</v>
+        <v>1001.73</v>
       </c>
       <c r="AW4" s="1">
-        <v>-125.107000</v>
+        <v>-125.107</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>43309.616636</v>
+        <v>43309.616635999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>12.030449</v>
+        <v>12.030449000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1011.430000</v>
+        <v>1011.43</v>
       </c>
       <c r="BB4" s="1">
-        <v>-144.068000</v>
+        <v>-144.06800000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>43320.283070</v>
+        <v>43320.283069999998</v>
       </c>
       <c r="BE4" s="1">
         <v>12.033412</v>
       </c>
       <c r="BF4" s="1">
-        <v>1056.850000</v>
+        <v>1056.8499999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-229.927000</v>
+        <v>-229.92699999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>43330.977840</v>
+        <v>43330.97784</v>
       </c>
       <c r="BJ4" s="1">
-        <v>12.036383</v>
+        <v>12.036383000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1136.450000</v>
+        <v>1136.45</v>
       </c>
       <c r="BL4" s="1">
-        <v>-368.046000</v>
+        <v>-368.04599999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>43342.071826</v>
+        <v>43342.071825999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>12.039464</v>
+        <v>12.039464000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1268.460000</v>
+        <v>1268.46</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-582.462000</v>
+        <v>-582.46199999999999</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>43353.284413</v>
+        <v>43353.284413000001</v>
       </c>
       <c r="BT4" s="1">
         <v>12.042579</v>
       </c>
       <c r="BU4" s="1">
-        <v>1417.590000</v>
+        <v>1417.59</v>
       </c>
       <c r="BV4" s="1">
-        <v>-812.105000</v>
+        <v>-812.10500000000002</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>43363.944932</v>
+        <v>43363.944931999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>12.045540</v>
+        <v>12.045540000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1581.010000</v>
+        <v>1581.01</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1052.470000</v>
+        <v>-1052.47</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>43375.148535</v>
       </c>
       <c r="CD4" s="1">
-        <v>12.048652</v>
+        <v>12.048652000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1996.010000</v>
+        <v>1996.01</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1615.620000</v>
+        <v>-1615.62</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>43204.366535</v>
+        <v>43204.366535000001</v>
       </c>
       <c r="B5" s="1">
         <v>12.001213</v>
       </c>
       <c r="C5" s="1">
-        <v>910.605000</v>
+        <v>910.60500000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>-175.134000</v>
+        <v>-175.13399999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>43214.768669</v>
+        <v>43214.768668999997</v>
       </c>
       <c r="G5" s="1">
         <v>12.004102</v>
       </c>
       <c r="H5" s="1">
-        <v>924.340000</v>
+        <v>924.34</v>
       </c>
       <c r="I5" s="1">
-        <v>-150.060000</v>
+        <v>-150.06</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>43225.228268</v>
+        <v>43225.228267999999</v>
       </c>
       <c r="L5" s="1">
-        <v>12.007008</v>
+        <v>12.007008000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>944.823000</v>
+        <v>944.82299999999998</v>
       </c>
       <c r="N5" s="1">
-        <v>-111.031000</v>
+        <v>-111.03100000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>43235.749903</v>
+        <v>43235.749903000004</v>
       </c>
       <c r="Q5" s="1">
         <v>12.009931</v>
       </c>
       <c r="R5" s="1">
-        <v>951.580000</v>
+        <v>951.58</v>
       </c>
       <c r="S5" s="1">
-        <v>-98.286800</v>
+        <v>-98.286799999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>43246.581039</v>
+        <v>43246.581038999997</v>
       </c>
       <c r="V5" s="1">
-        <v>12.012939</v>
+        <v>12.012938999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>958.559000</v>
+        <v>958.55899999999997</v>
       </c>
       <c r="X5" s="1">
-        <v>-86.954100</v>
+        <v>-86.954099999999997</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>43257.045665</v>
+        <v>43257.045664999998</v>
       </c>
       <c r="AA5" s="1">
         <v>12.015846</v>
       </c>
       <c r="AB5" s="1">
-        <v>966.783000</v>
+        <v>966.78300000000002</v>
       </c>
       <c r="AC5" s="1">
-        <v>-79.270200</v>
+        <v>-79.270200000000003</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>43267.616900</v>
+        <v>43267.616900000001</v>
       </c>
       <c r="AF5" s="1">
         <v>12.018782</v>
       </c>
       <c r="AG5" s="1">
-        <v>972.331000</v>
+        <v>972.33100000000002</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.637100</v>
+        <v>-79.637100000000004</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>43278.102821</v>
       </c>
       <c r="AK5" s="1">
-        <v>12.021695</v>
+        <v>12.021694999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>980.688000</v>
+        <v>980.68799999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.887800</v>
+        <v>-87.887799999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>43288.948835</v>
+        <v>43288.948835000003</v>
       </c>
       <c r="AP5" s="1">
         <v>12.024708</v>
       </c>
       <c r="AQ5" s="1">
-        <v>990.144000</v>
+        <v>990.14400000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-103.194000</v>
+        <v>-103.194</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>43299.568186</v>
+        <v>43299.568185999997</v>
       </c>
       <c r="AU5" s="1">
-        <v>12.027658</v>
+        <v>12.027658000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1001.730000</v>
+        <v>1001.73</v>
       </c>
       <c r="AW5" s="1">
-        <v>-125.130000</v>
+        <v>-125.13</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>43310.038701</v>
+        <v>43310.038700999998</v>
       </c>
       <c r="AZ5" s="1">
         <v>12.030566</v>
       </c>
       <c r="BA5" s="1">
-        <v>1011.420000</v>
+        <v>1011.42</v>
       </c>
       <c r="BB5" s="1">
-        <v>-144.090000</v>
+        <v>-144.09</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>43320.710126</v>
+        <v>43320.710125999998</v>
       </c>
       <c r="BE5" s="1">
         <v>12.033531</v>
       </c>
       <c r="BF5" s="1">
-        <v>1056.840000</v>
+        <v>1056.8399999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-229.925000</v>
+        <v>-229.92500000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>43331.305201</v>
+        <v>43331.305201000003</v>
       </c>
       <c r="BJ5" s="1">
         <v>12.036474</v>
       </c>
       <c r="BK5" s="1">
-        <v>1136.500000</v>
+        <v>1136.5</v>
       </c>
       <c r="BL5" s="1">
-        <v>-368.105000</v>
+        <v>-368.10500000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>43342.469930</v>
+        <v>43342.469929999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>12.039575</v>
+        <v>12.039574999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1268.460000</v>
+        <v>1268.46</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-582.481000</v>
+        <v>-582.48099999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>43353.699043</v>
+        <v>43353.699043000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>12.042694</v>
+        <v>12.042693999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1417.590000</v>
+        <v>1417.59</v>
       </c>
       <c r="BV5" s="1">
-        <v>-812.065000</v>
+        <v>-812.06500000000005</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>43364.391334</v>
@@ -1477,240 +1893,240 @@
         <v>12.045664</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1581.070000</v>
+        <v>1581.07</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1052.520000</v>
+        <v>-1052.52</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>43375.687190</v>
+        <v>43375.687189999997</v>
       </c>
       <c r="CD5" s="1">
         <v>12.048802</v>
       </c>
       <c r="CE5" s="1">
-        <v>1998.260000</v>
+        <v>1998.26</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1614.200000</v>
+        <v>-1614.2</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>43204.709270</v>
+        <v>43204.709269999999</v>
       </c>
       <c r="B6" s="1">
         <v>12.001308</v>
       </c>
       <c r="C6" s="1">
-        <v>910.588000</v>
+        <v>910.58799999999997</v>
       </c>
       <c r="D6" s="1">
-        <v>-175.025000</v>
+        <v>-175.02500000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>43215.117853</v>
+        <v>43215.117853000003</v>
       </c>
       <c r="G6" s="1">
         <v>12.004199</v>
       </c>
       <c r="H6" s="1">
-        <v>924.396000</v>
+        <v>924.39599999999996</v>
       </c>
       <c r="I6" s="1">
-        <v>-149.852000</v>
+        <v>-149.852</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>43225.577949</v>
+        <v>43225.577948999999</v>
       </c>
       <c r="L6" s="1">
-        <v>12.007105</v>
+        <v>12.007104999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>944.807000</v>
+        <v>944.80700000000002</v>
       </c>
       <c r="N6" s="1">
-        <v>-110.954000</v>
+        <v>-110.95399999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>43236.414541</v>
+        <v>43236.414540999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>12.010115</v>
+        <v>12.010115000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>951.543000</v>
+        <v>951.54300000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-98.314800</v>
+        <v>-98.314800000000005</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>43246.952081</v>
+        <v>43246.952081000003</v>
       </c>
       <c r="V6" s="1">
         <v>12.013042</v>
       </c>
       <c r="W6" s="1">
-        <v>958.674000</v>
+        <v>958.67399999999998</v>
       </c>
       <c r="X6" s="1">
-        <v>-87.014000</v>
+        <v>-87.013999999999996</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>43257.421601</v>
+        <v>43257.421601000002</v>
       </c>
       <c r="AA6" s="1">
-        <v>12.015950</v>
+        <v>12.01595</v>
       </c>
       <c r="AB6" s="1">
-        <v>966.826000</v>
+        <v>966.82600000000002</v>
       </c>
       <c r="AC6" s="1">
-        <v>-79.366700</v>
+        <v>-79.366699999999994</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>43267.965094</v>
+        <v>43267.965093999999</v>
       </c>
       <c r="AF6" s="1">
         <v>12.018879</v>
       </c>
       <c r="AG6" s="1">
-        <v>972.250000</v>
+        <v>972.25</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.601600</v>
+        <v>-79.601600000000005</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>43278.451973</v>
+        <v>43278.451973000003</v>
       </c>
       <c r="AK6" s="1">
         <v>12.021792</v>
       </c>
       <c r="AL6" s="1">
-        <v>980.727000</v>
+        <v>980.72699999999998</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.889600</v>
+        <v>-87.889600000000002</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>43289.309895</v>
+        <v>43289.309894999999</v>
       </c>
       <c r="AP6" s="1">
         <v>12.024808</v>
       </c>
       <c r="AQ6" s="1">
-        <v>990.163000</v>
+        <v>990.16300000000001</v>
       </c>
       <c r="AR6" s="1">
-        <v>-103.188000</v>
+        <v>-103.188</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>43299.995737</v>
+        <v>43299.995736999997</v>
       </c>
       <c r="AU6" s="1">
         <v>12.027777</v>
       </c>
       <c r="AV6" s="1">
-        <v>1001.740000</v>
+        <v>1001.74</v>
       </c>
       <c r="AW6" s="1">
-        <v>-125.098000</v>
+        <v>-125.098</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>43310.335307</v>
+        <v>43310.335307000001</v>
       </c>
       <c r="AZ6" s="1">
         <v>12.030649</v>
       </c>
       <c r="BA6" s="1">
-        <v>1011.410000</v>
+        <v>1011.41</v>
       </c>
       <c r="BB6" s="1">
-        <v>-144.081000</v>
+        <v>-144.08099999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>43321.007261</v>
+        <v>43321.007260999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>12.033613</v>
+        <v>12.033613000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1056.850000</v>
+        <v>1056.8499999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-229.943000</v>
+        <v>-229.94300000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>43331.678191</v>
+        <v>43331.678190999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>12.036577</v>
+        <v>12.036576999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1136.480000</v>
+        <v>1136.48</v>
       </c>
       <c r="BL6" s="1">
-        <v>-368.066000</v>
+        <v>-368.06599999999997</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>43342.892738</v>
+        <v>43342.892738000002</v>
       </c>
       <c r="BO6" s="1">
-        <v>12.039692</v>
+        <v>12.039692000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1268.440000</v>
+        <v>1268.44</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-582.454000</v>
+        <v>-582.45399999999995</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>43354.112211</v>
@@ -1719,347 +2135,347 @@
         <v>12.042809</v>
       </c>
       <c r="BU6" s="1">
-        <v>1417.490000</v>
+        <v>1417.49</v>
       </c>
       <c r="BV6" s="1">
-        <v>-812.010000</v>
+        <v>-812.01</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>43364.824803</v>
+        <v>43364.824803000003</v>
       </c>
       <c r="BY6" s="1">
         <v>12.045785</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1581.060000</v>
+        <v>1581.06</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1052.470000</v>
+        <v>-1052.47</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>43376.230805</v>
+        <v>43376.230804999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>12.048953</v>
+        <v>12.048952999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1996.450000</v>
+        <v>1996.45</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1614.550000</v>
+        <v>-1614.55</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>43205.049528</v>
+        <v>43205.049528000003</v>
       </c>
       <c r="B7" s="1">
         <v>12.001403</v>
       </c>
       <c r="C7" s="1">
-        <v>910.565000</v>
+        <v>910.56500000000005</v>
       </c>
       <c r="D7" s="1">
-        <v>-174.949000</v>
+        <v>-174.94900000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>43215.782952</v>
+        <v>43215.782952000001</v>
       </c>
       <c r="G7" s="1">
         <v>12.004384</v>
       </c>
       <c r="H7" s="1">
-        <v>924.432000</v>
+        <v>924.43200000000002</v>
       </c>
       <c r="I7" s="1">
-        <v>-150.015000</v>
+        <v>-150.01499999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>43226.246941</v>
+        <v>43226.246940999998</v>
       </c>
       <c r="L7" s="1">
         <v>12.007291</v>
       </c>
       <c r="M7" s="1">
-        <v>944.898000</v>
+        <v>944.89800000000002</v>
       </c>
       <c r="N7" s="1">
-        <v>-110.929000</v>
+        <v>-110.929</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>43236.794972</v>
+        <v>43236.794972000003</v>
       </c>
       <c r="Q7" s="1">
         <v>12.010221</v>
       </c>
       <c r="R7" s="1">
-        <v>951.547000</v>
+        <v>951.54700000000003</v>
       </c>
       <c r="S7" s="1">
-        <v>-98.321700</v>
+        <v>-98.321700000000007</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>43247.295072</v>
+        <v>43247.295072000001</v>
       </c>
       <c r="V7" s="1">
         <v>12.013138</v>
       </c>
       <c r="W7" s="1">
-        <v>958.530000</v>
+        <v>958.53</v>
       </c>
       <c r="X7" s="1">
-        <v>-87.029200</v>
+        <v>-87.029200000000003</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>43257.769297</v>
+        <v>43257.769296999999</v>
       </c>
       <c r="AA7" s="1">
         <v>12.016047</v>
       </c>
       <c r="AB7" s="1">
-        <v>966.838000</v>
+        <v>966.83799999999997</v>
       </c>
       <c r="AC7" s="1">
-        <v>-79.248300</v>
+        <v>-79.2483</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>43268.309283</v>
+        <v>43268.309283000002</v>
       </c>
       <c r="AF7" s="1">
-        <v>12.018975</v>
+        <v>12.018974999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>972.216000</v>
+        <v>972.21600000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.513700</v>
+        <v>-79.5137</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>43278.883529</v>
+        <v>43278.883528999999</v>
       </c>
       <c r="AK7" s="1">
         <v>12.021912</v>
       </c>
       <c r="AL7" s="1">
-        <v>980.711000</v>
+        <v>980.71100000000001</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.916700</v>
+        <v>-87.916700000000006</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>43289.737446</v>
+        <v>43289.737445999999</v>
       </c>
       <c r="AP7" s="1">
         <v>12.024927</v>
       </c>
       <c r="AQ7" s="1">
-        <v>990.150000</v>
+        <v>990.15</v>
       </c>
       <c r="AR7" s="1">
-        <v>-103.184000</v>
+        <v>-103.184</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>43300.298762</v>
+        <v>43300.298761999999</v>
       </c>
       <c r="AU7" s="1">
         <v>12.027861</v>
       </c>
       <c r="AV7" s="1">
-        <v>1001.720000</v>
+        <v>1001.72</v>
       </c>
       <c r="AW7" s="1">
-        <v>-125.092000</v>
+        <v>-125.092</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>43310.692428</v>
+        <v>43310.692428000002</v>
       </c>
       <c r="AZ7" s="1">
-        <v>12.030748</v>
+        <v>12.030748000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1011.420000</v>
+        <v>1011.42</v>
       </c>
       <c r="BB7" s="1">
-        <v>-144.060000</v>
+        <v>-144.06</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>43321.366861</v>
+        <v>43321.366861000002</v>
       </c>
       <c r="BE7" s="1">
-        <v>12.033713</v>
+        <v>12.033713000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1056.850000</v>
+        <v>1056.8499999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-229.926000</v>
+        <v>-229.92599999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>43332.078466</v>
+        <v>43332.078465999999</v>
       </c>
       <c r="BJ7" s="1">
         <v>12.036688</v>
       </c>
       <c r="BK7" s="1">
-        <v>1136.440000</v>
+        <v>1136.44</v>
       </c>
       <c r="BL7" s="1">
-        <v>-368.126000</v>
+        <v>-368.12599999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>43343.708127</v>
+        <v>43343.708126999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>12.039919</v>
+        <v>12.039918999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1268.400000</v>
+        <v>1268.4000000000001</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-582.472000</v>
+        <v>-582.47199999999998</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>43354.540288</v>
+        <v>43354.540287999997</v>
       </c>
       <c r="BT7" s="1">
         <v>12.042928</v>
       </c>
       <c r="BU7" s="1">
-        <v>1417.390000</v>
+        <v>1417.39</v>
       </c>
       <c r="BV7" s="1">
-        <v>-811.886000</v>
+        <v>-811.88599999999997</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>43365.247396</v>
+        <v>43365.247395999999</v>
       </c>
       <c r="BY7" s="1">
         <v>12.045902</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1581.010000</v>
+        <v>1581.01</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1052.490000</v>
+        <v>-1052.49</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>43376.768963</v>
+        <v>43376.768963000002</v>
       </c>
       <c r="CD7" s="1">
         <v>12.049102</v>
       </c>
       <c r="CE7" s="1">
-        <v>1997.520000</v>
+        <v>1997.52</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1615.840000</v>
+        <v>-1615.84</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>43205.700774</v>
+        <v>43205.700773999997</v>
       </c>
       <c r="B8" s="1">
-        <v>12.001584</v>
+        <v>12.001583999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>910.774000</v>
+        <v>910.774</v>
       </c>
       <c r="D8" s="1">
-        <v>-175.048000</v>
+        <v>-175.048</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>43216.148504</v>
+        <v>43216.148503999997</v>
       </c>
       <c r="G8" s="1">
         <v>12.004486</v>
       </c>
       <c r="H8" s="1">
-        <v>924.637000</v>
+        <v>924.63699999999994</v>
       </c>
       <c r="I8" s="1">
-        <v>-149.860000</v>
+        <v>-149.86000000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>43226.614586</v>
+        <v>43226.614586000003</v>
       </c>
       <c r="L8" s="1">
         <v>12.007393</v>
       </c>
       <c r="M8" s="1">
-        <v>944.631000</v>
+        <v>944.63099999999997</v>
       </c>
       <c r="N8" s="1">
-        <v>-111.102000</v>
+        <v>-111.102</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>43237.144686</v>
@@ -2068,88 +2484,88 @@
         <v>12.010318</v>
       </c>
       <c r="R8" s="1">
-        <v>951.546000</v>
+        <v>951.54600000000005</v>
       </c>
       <c r="S8" s="1">
-        <v>-98.345400</v>
+        <v>-98.345399999999998</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>43247.638013</v>
+        <v>43247.638013000003</v>
       </c>
       <c r="V8" s="1">
         <v>12.013233</v>
       </c>
       <c r="W8" s="1">
-        <v>958.623000</v>
+        <v>958.62300000000005</v>
       </c>
       <c r="X8" s="1">
-        <v>-86.890900</v>
+        <v>-86.890900000000002</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>43258.117488</v>
+        <v>43258.117488000004</v>
       </c>
       <c r="AA8" s="1">
-        <v>12.016144</v>
+        <v>12.016144000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>966.854000</v>
+        <v>966.85400000000004</v>
       </c>
       <c r="AC8" s="1">
-        <v>-79.314200</v>
+        <v>-79.3142</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>43268.736834</v>
+        <v>43268.736834000003</v>
       </c>
       <c r="AF8" s="1">
-        <v>12.019094</v>
+        <v>12.019094000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>972.300000</v>
+        <v>972.3</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.457600</v>
+        <v>-79.457599999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>43279.148364</v>
+        <v>43279.148364000001</v>
       </c>
       <c r="AK8" s="1">
         <v>12.021986</v>
       </c>
       <c r="AL8" s="1">
-        <v>980.718000</v>
+        <v>980.71799999999996</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.902600</v>
+        <v>-87.902600000000007</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>43290.034550</v>
+        <v>43290.034549999997</v>
       </c>
       <c r="AP8" s="1">
-        <v>12.025010</v>
+        <v>12.02501</v>
       </c>
       <c r="AQ8" s="1">
-        <v>990.138000</v>
+        <v>990.13800000000003</v>
       </c>
       <c r="AR8" s="1">
-        <v>-103.207000</v>
+        <v>-103.20699999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>43300.663816</v>
@@ -2158,73 +2574,73 @@
         <v>12.027962</v>
       </c>
       <c r="AV8" s="1">
-        <v>1001.730000</v>
+        <v>1001.73</v>
       </c>
       <c r="AW8" s="1">
-        <v>-125.096000</v>
+        <v>-125.096</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>43311.053018</v>
+        <v>43311.053017999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>12.030848</v>
+        <v>12.030848000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1011.410000</v>
+        <v>1011.41</v>
       </c>
       <c r="BB8" s="1">
-        <v>-144.039000</v>
+        <v>-144.03899999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>43321.727917</v>
+        <v>43321.727916999997</v>
       </c>
       <c r="BE8" s="1">
         <v>12.033813</v>
       </c>
       <c r="BF8" s="1">
-        <v>1056.860000</v>
+        <v>1056.8599999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-229.916000</v>
+        <v>-229.916</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>43332.831389</v>
+        <v>43332.831388999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>12.036898</v>
+        <v>12.036898000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1136.490000</v>
+        <v>1136.49</v>
       </c>
       <c r="BL8" s="1">
-        <v>-368.076000</v>
+        <v>-368.07600000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>43344.128270</v>
+        <v>43344.128270000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>12.040036</v>
+        <v>12.040036000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1268.460000</v>
+        <v>1268.46</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-582.460000</v>
+        <v>-582.46</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>43354.941024</v>
@@ -2233,332 +2649,332 @@
         <v>12.043039</v>
       </c>
       <c r="BU8" s="1">
-        <v>1417.390000</v>
+        <v>1417.39</v>
       </c>
       <c r="BV8" s="1">
-        <v>-811.865000</v>
+        <v>-811.86500000000001</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>43365.665028</v>
+        <v>43365.665028000003</v>
       </c>
       <c r="BY8" s="1">
         <v>12.046018</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1580.910000</v>
+        <v>1580.91</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1052.510000</v>
+        <v>-1052.51</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>43377.610180</v>
+        <v>43377.610180000003</v>
       </c>
       <c r="CD8" s="1">
         <v>12.049336</v>
       </c>
       <c r="CE8" s="1">
-        <v>1996.010000</v>
+        <v>1996.01</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1615.040000</v>
+        <v>-1615.04</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>43206.076741</v>
+        <v>43206.076740999997</v>
       </c>
       <c r="B9" s="1">
         <v>12.001688</v>
       </c>
       <c r="C9" s="1">
-        <v>910.603000</v>
+        <v>910.60299999999995</v>
       </c>
       <c r="D9" s="1">
-        <v>-175.000000</v>
+        <v>-175</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>43216.492754</v>
+        <v>43216.492753999999</v>
       </c>
       <c r="G9" s="1">
         <v>12.004581</v>
       </c>
       <c r="H9" s="1">
-        <v>924.670000</v>
+        <v>924.67</v>
       </c>
       <c r="I9" s="1">
-        <v>-149.987000</v>
+        <v>-149.98699999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>43226.960793</v>
+        <v>43226.960792999998</v>
       </c>
       <c r="L9" s="1">
         <v>12.007489</v>
       </c>
       <c r="M9" s="1">
-        <v>944.833000</v>
+        <v>944.83299999999997</v>
       </c>
       <c r="N9" s="1">
-        <v>-111.014000</v>
+        <v>-111.014</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>43237.496322</v>
+        <v>43237.496321999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>12.010416</v>
+        <v>12.010415999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>951.547000</v>
+        <v>951.54700000000003</v>
       </c>
       <c r="S9" s="1">
-        <v>-98.307300</v>
+        <v>-98.307299999999998</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>43248.062096</v>
+        <v>43248.062096000001</v>
       </c>
       <c r="V9" s="1">
         <v>12.013351</v>
       </c>
       <c r="W9" s="1">
-        <v>958.662000</v>
+        <v>958.66200000000003</v>
       </c>
       <c r="X9" s="1">
-        <v>-86.948700</v>
+        <v>-86.948700000000002</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>43258.550992</v>
+        <v>43258.550991999997</v>
       </c>
       <c r="AA9" s="1">
         <v>12.016264</v>
       </c>
       <c r="AB9" s="1">
-        <v>966.787000</v>
+        <v>966.78700000000003</v>
       </c>
       <c r="AC9" s="1">
-        <v>-79.226800</v>
+        <v>-79.226799999999997</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>43269.004674</v>
+        <v>43269.004674000003</v>
       </c>
       <c r="AF9" s="1">
-        <v>12.019168</v>
+        <v>12.019168000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>972.270000</v>
+        <v>972.27</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.554000</v>
+        <v>-79.554000000000002</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>43279.497046</v>
+        <v>43279.497045999997</v>
       </c>
       <c r="AK9" s="1">
         <v>12.022083</v>
       </c>
       <c r="AL9" s="1">
-        <v>980.718000</v>
+        <v>980.71799999999996</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.889400</v>
+        <v>-87.889399999999995</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>43290.397125</v>
+        <v>43290.397125000003</v>
       </c>
       <c r="AP9" s="1">
-        <v>12.025110</v>
+        <v>12.02511</v>
       </c>
       <c r="AQ9" s="1">
-        <v>990.158000</v>
+        <v>990.15800000000002</v>
       </c>
       <c r="AR9" s="1">
-        <v>-103.207000</v>
+        <v>-103.20699999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>43301.023712</v>
+        <v>43301.023712000002</v>
       </c>
       <c r="AU9" s="1">
         <v>12.028062</v>
       </c>
       <c r="AV9" s="1">
-        <v>1001.730000</v>
+        <v>1001.73</v>
       </c>
       <c r="AW9" s="1">
-        <v>-125.120000</v>
+        <v>-125.12</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>43311.771227</v>
+        <v>43311.771226999997</v>
       </c>
       <c r="AZ9" s="1">
         <v>12.031048</v>
       </c>
       <c r="BA9" s="1">
-        <v>1011.420000</v>
+        <v>1011.42</v>
       </c>
       <c r="BB9" s="1">
-        <v>-144.072000</v>
+        <v>-144.072</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>43322.452076</v>
+        <v>43322.452076000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>12.034014</v>
+        <v>12.034014000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1056.860000</v>
+        <v>1056.8599999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-229.934000</v>
+        <v>-229.934</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>43333.230637</v>
+        <v>43333.230637000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>12.037009</v>
+        <v>12.037008999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1136.460000</v>
+        <v>1136.46</v>
       </c>
       <c r="BL9" s="1">
-        <v>-368.120000</v>
+        <v>-368.12</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>43344.522589</v>
       </c>
       <c r="BO9" s="1">
-        <v>12.040145</v>
+        <v>12.040145000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1268.490000</v>
+        <v>1268.49</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-582.473000</v>
+        <v>-582.47299999999996</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>43355.380479</v>
+        <v>43355.380478999999</v>
       </c>
       <c r="BT9" s="1">
         <v>12.043161</v>
       </c>
       <c r="BU9" s="1">
-        <v>1417.230000</v>
+        <v>1417.23</v>
       </c>
       <c r="BV9" s="1">
-        <v>-811.901000</v>
+        <v>-811.90099999999995</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>43366.398611</v>
+        <v>43366.398610999997</v>
       </c>
       <c r="BY9" s="1">
         <v>12.046222</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1581.200000</v>
+        <v>1581.2</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1052.550000</v>
+        <v>-1052.55</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>43377.844786</v>
+        <v>43377.844786000001</v>
       </c>
       <c r="CD9" s="1">
         <v>12.049401</v>
       </c>
       <c r="CE9" s="1">
-        <v>1996.100000</v>
+        <v>1996.1</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1614.940000</v>
+        <v>-1614.94</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>43206.420966</v>
+        <v>43206.420965999998</v>
       </c>
       <c r="B10" s="1">
-        <v>12.001784</v>
+        <v>12.001784000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>910.665000</v>
+        <v>910.66499999999996</v>
       </c>
       <c r="D10" s="1">
-        <v>-175.056000</v>
+        <v>-175.05600000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>43216.837943</v>
+        <v>43216.837942999999</v>
       </c>
       <c r="G10" s="1">
-        <v>12.004677</v>
+        <v>12.004676999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>924.382000</v>
+        <v>924.38199999999995</v>
       </c>
       <c r="I10" s="1">
-        <v>-150.151000</v>
+        <v>-150.15100000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>43227.385401</v>
@@ -2567,43 +2983,43 @@
         <v>12.007607</v>
       </c>
       <c r="M10" s="1">
-        <v>944.901000</v>
+        <v>944.90099999999995</v>
       </c>
       <c r="N10" s="1">
-        <v>-110.971000</v>
+        <v>-110.971</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>43237.914971</v>
+        <v>43237.914970999998</v>
       </c>
       <c r="Q10" s="1">
         <v>12.010532</v>
       </c>
       <c r="R10" s="1">
-        <v>951.587000</v>
+        <v>951.58699999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-98.267700</v>
+        <v>-98.267700000000005</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>43248.349783</v>
+        <v>43248.349782999998</v>
       </c>
       <c r="V10" s="1">
-        <v>12.013430</v>
+        <v>12.01343</v>
       </c>
       <c r="W10" s="1">
-        <v>958.736000</v>
+        <v>958.73599999999999</v>
       </c>
       <c r="X10" s="1">
-        <v>-86.996000</v>
+        <v>-86.995999999999995</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>43258.814863</v>
@@ -2612,467 +3028,467 @@
         <v>12.016337</v>
       </c>
       <c r="AB10" s="1">
-        <v>966.791000</v>
+        <v>966.79100000000005</v>
       </c>
       <c r="AC10" s="1">
-        <v>-79.295600</v>
+        <v>-79.295599999999993</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>43269.346915</v>
+        <v>43269.346915000002</v>
       </c>
       <c r="AF10" s="1">
         <v>12.019263</v>
       </c>
       <c r="AG10" s="1">
-        <v>972.390000</v>
+        <v>972.39</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.562200</v>
+        <v>-79.562200000000004</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>43279.845731</v>
+        <v>43279.845731000001</v>
       </c>
       <c r="AK10" s="1">
         <v>12.022179</v>
       </c>
       <c r="AL10" s="1">
-        <v>980.718000</v>
+        <v>980.71799999999996</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.903100</v>
+        <v>-87.903099999999995</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>43290.750315</v>
+        <v>43290.750314999997</v>
       </c>
       <c r="AP10" s="1">
-        <v>12.025208</v>
+        <v>12.025207999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>990.154000</v>
+        <v>990.154</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.227000</v>
+        <v>-103.227</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>43301.756999</v>
+        <v>43301.756998999997</v>
       </c>
       <c r="AU10" s="1">
         <v>12.028266</v>
       </c>
       <c r="AV10" s="1">
-        <v>1001.720000</v>
+        <v>1001.72</v>
       </c>
       <c r="AW10" s="1">
-        <v>-125.116000</v>
+        <v>-125.116</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>43312.129369</v>
+        <v>43312.129369000002</v>
       </c>
       <c r="AZ10" s="1">
-        <v>12.031147</v>
+        <v>12.031147000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1011.430000</v>
+        <v>1011.43</v>
       </c>
       <c r="BB10" s="1">
-        <v>-144.080000</v>
+        <v>-144.08000000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>43322.825564</v>
+        <v>43322.825563999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>12.034118</v>
+        <v>12.034117999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1056.860000</v>
+        <v>1056.8599999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-229.934000</v>
+        <v>-229.934</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>43333.609117</v>
       </c>
       <c r="BJ10" s="1">
-        <v>12.037114</v>
+        <v>12.037114000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1136.430000</v>
+        <v>1136.43</v>
       </c>
       <c r="BL10" s="1">
-        <v>-368.065000</v>
+        <v>-368.065</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>43345.257629</v>
       </c>
       <c r="BO10" s="1">
-        <v>12.040349</v>
+        <v>12.040349000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1268.440000</v>
+        <v>1268.44</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-582.468000</v>
+        <v>-582.46799999999996</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>43356.140846</v>
+        <v>43356.140846000002</v>
       </c>
       <c r="BT10" s="1">
         <v>12.043372</v>
       </c>
       <c r="BU10" s="1">
-        <v>1417.160000</v>
+        <v>1417.16</v>
       </c>
       <c r="BV10" s="1">
-        <v>-811.908000</v>
+        <v>-811.90800000000002</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>43366.508225</v>
+        <v>43366.508224999998</v>
       </c>
       <c r="BY10" s="1">
-        <v>12.046252</v>
+        <v>12.046252000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1581.160000</v>
+        <v>1581.16</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1052.390000</v>
+        <v>-1052.3900000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>43378.366776</v>
+        <v>43378.366776000003</v>
       </c>
       <c r="CD10" s="1">
-        <v>12.049546</v>
+        <v>12.049545999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>1997.430000</v>
+        <v>1997.43</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1615.500000</v>
+        <v>-1615.5</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>43206.762213</v>
+        <v>43206.762213000002</v>
       </c>
       <c r="B11" s="1">
         <v>12.001878</v>
       </c>
       <c r="C11" s="1">
-        <v>910.850000</v>
+        <v>910.85</v>
       </c>
       <c r="D11" s="1">
-        <v>-175.158000</v>
+        <v>-175.15799999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>43217.257596</v>
+        <v>43217.257596000003</v>
       </c>
       <c r="G11" s="1">
         <v>12.004794</v>
       </c>
       <c r="H11" s="1">
-        <v>924.678000</v>
+        <v>924.678</v>
       </c>
       <c r="I11" s="1">
-        <v>-150.304000</v>
+        <v>-150.304</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>43227.654697</v>
+        <v>43227.654696999998</v>
       </c>
       <c r="L11" s="1">
-        <v>12.007682</v>
+        <v>12.007682000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>944.882000</v>
+        <v>944.88199999999995</v>
       </c>
       <c r="N11" s="1">
-        <v>-110.960000</v>
+        <v>-110.96</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>43238.195179</v>
+        <v>43238.195179000002</v>
       </c>
       <c r="Q11" s="1">
-        <v>12.010610</v>
+        <v>12.01061</v>
       </c>
       <c r="R11" s="1">
-        <v>951.576000</v>
+        <v>951.57600000000002</v>
       </c>
       <c r="S11" s="1">
-        <v>-98.257500</v>
+        <v>-98.257499999999993</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>43248.695486</v>
+        <v>43248.695485999997</v>
       </c>
       <c r="V11" s="1">
         <v>12.013527</v>
       </c>
       <c r="W11" s="1">
-        <v>958.607000</v>
+        <v>958.60699999999997</v>
       </c>
       <c r="X11" s="1">
-        <v>-86.921100</v>
+        <v>-86.921099999999996</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>43259.176456</v>
+        <v>43259.176456000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>12.016438</v>
+        <v>12.016438000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>966.818000</v>
+        <v>966.81799999999998</v>
       </c>
       <c r="AC11" s="1">
-        <v>-79.298800</v>
+        <v>-79.2988</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>43269.691666</v>
+        <v>43269.691665999999</v>
       </c>
       <c r="AF11" s="1">
         <v>12.019359</v>
       </c>
       <c r="AG11" s="1">
-        <v>972.270000</v>
+        <v>972.27</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.578600</v>
+        <v>-79.578599999999994</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>43280.547076</v>
+        <v>43280.547076000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>12.022374</v>
+        <v>12.022373999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>980.736000</v>
+        <v>980.73599999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.899500</v>
+        <v>-87.899500000000003</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>43291.477412</v>
       </c>
       <c r="AP11" s="1">
-        <v>12.025410</v>
+        <v>12.025410000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>990.146000</v>
+        <v>990.14599999999996</v>
       </c>
       <c r="AR11" s="1">
-        <v>-103.220000</v>
+        <v>-103.22</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>43302.146888</v>
+        <v>43302.146888000003</v>
       </c>
       <c r="AU11" s="1">
-        <v>12.028374</v>
+        <v>12.028373999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1001.710000</v>
+        <v>1001.71</v>
       </c>
       <c r="AW11" s="1">
-        <v>-125.124000</v>
+        <v>-125.124</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>43312.488440</v>
+        <v>43312.488440000001</v>
       </c>
       <c r="AZ11" s="1">
         <v>12.031247</v>
       </c>
       <c r="BA11" s="1">
-        <v>1011.420000</v>
+        <v>1011.42</v>
       </c>
       <c r="BB11" s="1">
-        <v>-144.081000</v>
+        <v>-144.08099999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>43323.168305</v>
+        <v>43323.168304999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>12.034213</v>
+        <v>12.034212999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1056.860000</v>
+        <v>1056.8599999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-229.938000</v>
+        <v>-229.93799999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>43334.286620</v>
+        <v>43334.286619999999</v>
       </c>
       <c r="BJ11" s="1">
         <v>12.037302</v>
       </c>
       <c r="BK11" s="1">
-        <v>1136.430000</v>
+        <v>1136.43</v>
       </c>
       <c r="BL11" s="1">
-        <v>-368.067000</v>
+        <v>-368.06700000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>43345.759084</v>
+        <v>43345.759083999998</v>
       </c>
       <c r="BO11" s="1">
-        <v>12.040489</v>
+        <v>12.040489000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1268.440000</v>
+        <v>1268.44</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-582.421000</v>
+        <v>-582.42100000000005</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>43356.253936</v>
+        <v>43356.253936000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>12.043404</v>
+        <v>12.043404000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1417.050000</v>
+        <v>1417.05</v>
       </c>
       <c r="BV11" s="1">
-        <v>-811.889000</v>
+        <v>-811.88900000000001</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>43366.934289</v>
+        <v>43366.934288999997</v>
       </c>
       <c r="BY11" s="1">
-        <v>12.046371</v>
+        <v>12.046371000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1581.040000</v>
+        <v>1581.04</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1052.590000</v>
+        <v>-1052.5899999999999</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>43378.882417</v>
+        <v>43378.882417000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>12.049690</v>
+        <v>12.04969</v>
       </c>
       <c r="CE11" s="1">
-        <v>1997.720000</v>
+        <v>1997.72</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1614.020000</v>
+        <v>-1614.02</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>43207.189764</v>
+        <v>43207.189764000002</v>
       </c>
       <c r="B12" s="1">
-        <v>12.001997</v>
+        <v>12.001996999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>910.664000</v>
+        <v>910.66399999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-175.063000</v>
+        <v>-175.06299999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>43217.528401</v>
+        <v>43217.528401000003</v>
       </c>
       <c r="G12" s="1">
-        <v>12.004869</v>
+        <v>12.004868999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>924.304000</v>
+        <v>924.30399999999997</v>
       </c>
       <c r="I12" s="1">
-        <v>-149.765000</v>
+        <v>-149.76499999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>43228.002429</v>
@@ -3081,919 +3497,919 @@
         <v>12.007778</v>
       </c>
       <c r="M12" s="1">
-        <v>945.099000</v>
+        <v>945.09900000000005</v>
       </c>
       <c r="N12" s="1">
-        <v>-110.867000</v>
+        <v>-110.867</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>43238.544894</v>
+        <v>43238.544893999999</v>
       </c>
       <c r="Q12" s="1">
         <v>12.010707</v>
       </c>
       <c r="R12" s="1">
-        <v>951.580000</v>
+        <v>951.58</v>
       </c>
       <c r="S12" s="1">
-        <v>-98.240500</v>
+        <v>-98.240499999999997</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>43249.036236</v>
       </c>
       <c r="V12" s="1">
-        <v>12.013621</v>
+        <v>12.013621000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>958.518000</v>
+        <v>958.51800000000003</v>
       </c>
       <c r="X12" s="1">
-        <v>-86.897500</v>
+        <v>-86.897499999999994</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>43259.875311</v>
+        <v>43259.875311000003</v>
       </c>
       <c r="AA12" s="1">
         <v>12.016632</v>
       </c>
       <c r="AB12" s="1">
-        <v>966.851000</v>
+        <v>966.851</v>
       </c>
       <c r="AC12" s="1">
-        <v>-79.196700</v>
+        <v>-79.196700000000007</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>43270.380080</v>
+        <v>43270.380080000003</v>
       </c>
       <c r="AF12" s="1">
-        <v>12.019550</v>
+        <v>12.019550000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>972.278000</v>
+        <v>972.27800000000002</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.685600</v>
+        <v>-79.685599999999994</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>43280.892797</v>
       </c>
       <c r="AK12" s="1">
-        <v>12.022470</v>
+        <v>12.02247</v>
       </c>
       <c r="AL12" s="1">
-        <v>980.731000</v>
+        <v>980.73099999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.898500</v>
+        <v>-87.898499999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>43291.856357</v>
+        <v>43291.856356999997</v>
       </c>
       <c r="AP12" s="1">
         <v>12.025516</v>
       </c>
       <c r="AQ12" s="1">
-        <v>990.143000</v>
+        <v>990.14300000000003</v>
       </c>
       <c r="AR12" s="1">
-        <v>-103.212000</v>
+        <v>-103.212</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>43302.513895</v>
+        <v>43302.513894999996</v>
       </c>
       <c r="AU12" s="1">
         <v>12.028476</v>
       </c>
       <c r="AV12" s="1">
-        <v>1001.730000</v>
+        <v>1001.73</v>
       </c>
       <c r="AW12" s="1">
-        <v>-125.123000</v>
+        <v>-125.123</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>43313.159527</v>
+        <v>43313.159527000003</v>
       </c>
       <c r="AZ12" s="1">
         <v>12.031433</v>
       </c>
       <c r="BA12" s="1">
-        <v>1011.400000</v>
+        <v>1011.4</v>
       </c>
       <c r="BB12" s="1">
-        <v>-144.053000</v>
+        <v>-144.053</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>43323.899897</v>
+        <v>43323.899897000003</v>
       </c>
       <c r="BE12" s="1">
-        <v>12.034417</v>
+        <v>12.034416999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1056.850000</v>
+        <v>1056.8499999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-229.920000</v>
+        <v>-229.92</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>43334.396236</v>
       </c>
       <c r="BJ12" s="1">
-        <v>12.037332</v>
+        <v>12.037331999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1136.470000</v>
+        <v>1136.47</v>
       </c>
       <c r="BL12" s="1">
-        <v>-368.043000</v>
+        <v>-368.04300000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>43346.178732</v>
       </c>
       <c r="BO12" s="1">
-        <v>12.040605</v>
+        <v>12.040604999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1268.460000</v>
+        <v>1268.46</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-582.465000</v>
+        <v>-582.46500000000003</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>43356.665154</v>
+        <v>43356.665154000002</v>
       </c>
       <c r="BT12" s="1">
-        <v>12.043518</v>
+        <v>12.043518000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1417.010000</v>
+        <v>1417.01</v>
       </c>
       <c r="BV12" s="1">
-        <v>-811.967000</v>
+        <v>-811.96699999999998</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>43367.404497</v>
+        <v>43367.404497000003</v>
       </c>
       <c r="BY12" s="1">
-        <v>12.046501</v>
+        <v>12.046500999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1580.950000</v>
+        <v>1580.95</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1052.550000</v>
+        <v>-1052.55</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>43379.403243</v>
+        <v>43379.403243000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>12.049834</v>
+        <v>12.049834000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1995.910000</v>
+        <v>1995.91</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1614.080000</v>
+        <v>-1614.08</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>43207.460115</v>
+        <v>43207.460115000002</v>
       </c>
       <c r="B13" s="1">
         <v>12.002072</v>
       </c>
       <c r="C13" s="1">
-        <v>910.653000</v>
+        <v>910.65300000000002</v>
       </c>
       <c r="D13" s="1">
-        <v>-174.958000</v>
+        <v>-174.958</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>43217.873095</v>
+        <v>43217.873095000003</v>
       </c>
       <c r="G13" s="1">
         <v>12.004965</v>
       </c>
       <c r="H13" s="1">
-        <v>924.165000</v>
+        <v>924.16499999999996</v>
       </c>
       <c r="I13" s="1">
-        <v>-150.049000</v>
+        <v>-150.04900000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>43228.347111</v>
+        <v>43228.347111000003</v>
       </c>
       <c r="L13" s="1">
-        <v>12.007874</v>
+        <v>12.007873999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>945.006000</v>
+        <v>945.00599999999997</v>
       </c>
       <c r="N13" s="1">
-        <v>-111.074000</v>
+        <v>-111.074</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>43238.892586</v>
+        <v>43238.892586000002</v>
       </c>
       <c r="Q13" s="1">
-        <v>12.010803</v>
+        <v>12.010802999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>951.568000</v>
+        <v>951.56799999999998</v>
       </c>
       <c r="S13" s="1">
-        <v>-98.298200</v>
+        <v>-98.298199999999994</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>43249.722205</v>
+        <v>43249.722204999998</v>
       </c>
       <c r="V13" s="1">
         <v>12.013812</v>
       </c>
       <c r="W13" s="1">
-        <v>958.648000</v>
+        <v>958.64800000000002</v>
       </c>
       <c r="X13" s="1">
-        <v>-86.962900</v>
+        <v>-86.962900000000005</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>43260.223997</v>
+        <v>43260.223997000001</v>
       </c>
       <c r="AA13" s="1">
         <v>12.016729</v>
       </c>
       <c r="AB13" s="1">
-        <v>966.733000</v>
+        <v>966.73299999999995</v>
       </c>
       <c r="AC13" s="1">
-        <v>-79.283600</v>
+        <v>-79.283600000000007</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>43270.724304</v>
+        <v>43270.724304000003</v>
       </c>
       <c r="AF13" s="1">
         <v>12.019646</v>
       </c>
       <c r="AG13" s="1">
-        <v>972.135000</v>
+        <v>972.13499999999999</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.464200</v>
+        <v>-79.464200000000005</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>43281.242192</v>
+        <v>43281.242191999998</v>
       </c>
       <c r="AK13" s="1">
         <v>12.022567</v>
       </c>
       <c r="AL13" s="1">
-        <v>980.713000</v>
+        <v>980.71299999999997</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.898600</v>
+        <v>-87.898600000000002</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>43292.524485</v>
+        <v>43292.524485000002</v>
       </c>
       <c r="AP13" s="1">
         <v>12.025701</v>
       </c>
       <c r="AQ13" s="1">
-        <v>990.155000</v>
+        <v>990.15499999999997</v>
       </c>
       <c r="AR13" s="1">
-        <v>-103.241000</v>
+        <v>-103.241</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>43303.196389</v>
+        <v>43303.196388999997</v>
       </c>
       <c r="AU13" s="1">
-        <v>12.028666</v>
+        <v>12.028665999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1001.720000</v>
+        <v>1001.72</v>
       </c>
       <c r="AW13" s="1">
-        <v>-125.115000</v>
+        <v>-125.11499999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>43313.563767</v>
       </c>
       <c r="AZ13" s="1">
-        <v>12.031545</v>
+        <v>12.031544999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1011.430000</v>
+        <v>1011.43</v>
       </c>
       <c r="BB13" s="1">
-        <v>-144.065000</v>
+        <v>-144.065</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>43324.280825</v>
+        <v>43324.280825000002</v>
       </c>
       <c r="BE13" s="1">
-        <v>12.034522</v>
+        <v>12.034522000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1056.840000</v>
+        <v>1056.8399999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-229.934000</v>
+        <v>-229.934</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>43334.756828</v>
+        <v>43334.756827999998</v>
       </c>
       <c r="BJ13" s="1">
-        <v>12.037432</v>
+        <v>12.037432000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1136.490000</v>
+        <v>1136.49</v>
       </c>
       <c r="BL13" s="1">
-        <v>-368.098000</v>
+        <v>-368.09800000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>43346.579965</v>
+        <v>43346.579964999997</v>
       </c>
       <c r="BO13" s="1">
-        <v>12.040717</v>
+        <v>12.040717000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1268.460000</v>
+        <v>1268.46</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-582.439000</v>
+        <v>-582.43899999999996</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>43357.092690</v>
+        <v>43357.092689999998</v>
       </c>
       <c r="BT13" s="1">
         <v>12.043637</v>
       </c>
       <c r="BU13" s="1">
-        <v>1416.910000</v>
+        <v>1416.91</v>
       </c>
       <c r="BV13" s="1">
-        <v>-812.016000</v>
+        <v>-812.01599999999996</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>43367.851924</v>
+        <v>43367.851924000002</v>
       </c>
       <c r="BY13" s="1">
         <v>12.046626</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1580.970000</v>
+        <v>1580.97</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1052.400000</v>
+        <v>-1052.4000000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>43379.922554</v>
+        <v>43379.922553999997</v>
       </c>
       <c r="CD13" s="1">
-        <v>12.049978</v>
+        <v>12.049977999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1996.800000</v>
+        <v>1996.8</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1613.610000</v>
+        <v>-1613.61</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>43207.799844</v>
+        <v>43207.799844000001</v>
       </c>
       <c r="B14" s="1">
         <v>12.002167</v>
       </c>
       <c r="C14" s="1">
-        <v>910.698000</v>
+        <v>910.69799999999998</v>
       </c>
       <c r="D14" s="1">
-        <v>-175.006000</v>
+        <v>-175.006</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>43218.219797</v>
+        <v>43218.219796999998</v>
       </c>
       <c r="G14" s="1">
         <v>12.005061</v>
       </c>
       <c r="H14" s="1">
-        <v>924.385000</v>
+        <v>924.38499999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-149.696000</v>
+        <v>-149.696</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>43229.040054</v>
+        <v>43229.040053999997</v>
       </c>
       <c r="L14" s="1">
         <v>12.008067</v>
       </c>
       <c r="M14" s="1">
-        <v>944.951000</v>
+        <v>944.95100000000002</v>
       </c>
       <c r="N14" s="1">
-        <v>-110.924000</v>
+        <v>-110.92400000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>43239.590920</v>
+        <v>43239.590920000002</v>
       </c>
       <c r="Q14" s="1">
         <v>12.010997</v>
       </c>
       <c r="R14" s="1">
-        <v>951.576000</v>
+        <v>951.57600000000002</v>
       </c>
       <c r="S14" s="1">
-        <v>-98.254200</v>
+        <v>-98.254199999999997</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>43250.064475</v>
+        <v>43250.064474999999</v>
       </c>
       <c r="V14" s="1">
         <v>12.013907</v>
       </c>
       <c r="W14" s="1">
-        <v>958.612000</v>
+        <v>958.61199999999997</v>
       </c>
       <c r="X14" s="1">
-        <v>-86.953900</v>
+        <v>-86.953900000000004</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>43260.570205</v>
+        <v>43260.570205000004</v>
       </c>
       <c r="AA14" s="1">
-        <v>12.016825</v>
+        <v>12.016825000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>966.782000</v>
+        <v>966.78200000000004</v>
       </c>
       <c r="AC14" s="1">
-        <v>-79.310400</v>
+        <v>-79.310400000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>43271.067039</v>
+        <v>43271.067039000001</v>
       </c>
       <c r="AF14" s="1">
         <v>12.019741</v>
       </c>
       <c r="AG14" s="1">
-        <v>972.326000</v>
+        <v>972.32600000000002</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.640200</v>
+        <v>-79.640199999999993</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>43281.908593</v>
       </c>
       <c r="AK14" s="1">
-        <v>12.022752</v>
+        <v>12.022752000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>980.696000</v>
+        <v>980.69600000000003</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.890500</v>
+        <v>-87.890500000000003</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>43292.931188</v>
+        <v>43292.931188000002</v>
       </c>
       <c r="AP14" s="1">
         <v>12.025814</v>
       </c>
       <c r="AQ14" s="1">
-        <v>990.136000</v>
+        <v>990.13599999999997</v>
       </c>
       <c r="AR14" s="1">
-        <v>-103.263000</v>
+        <v>-103.26300000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>43303.631380</v>
+        <v>43303.631379999999</v>
       </c>
       <c r="AU14" s="1">
         <v>12.028786</v>
       </c>
       <c r="AV14" s="1">
-        <v>1001.710000</v>
+        <v>1001.71</v>
       </c>
       <c r="AW14" s="1">
-        <v>-125.118000</v>
+        <v>-125.11799999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>43313.952134</v>
+        <v>43313.952133999999</v>
       </c>
       <c r="AZ14" s="1">
         <v>12.031653</v>
       </c>
       <c r="BA14" s="1">
-        <v>1011.410000</v>
+        <v>1011.41</v>
       </c>
       <c r="BB14" s="1">
-        <v>-144.087000</v>
+        <v>-144.08699999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>43324.644392</v>
+        <v>43324.644392000002</v>
       </c>
       <c r="BE14" s="1">
         <v>12.034623</v>
       </c>
       <c r="BF14" s="1">
-        <v>1056.860000</v>
+        <v>1056.8599999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-229.942000</v>
+        <v>-229.94200000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>43335.130842</v>
+        <v>43335.130841999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>12.037536</v>
+        <v>12.037535999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1136.450000</v>
+        <v>1136.45</v>
       </c>
       <c r="BL14" s="1">
-        <v>-368.087000</v>
+        <v>-368.08699999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>43346.999580</v>
+        <v>43346.999580000003</v>
       </c>
       <c r="BO14" s="1">
-        <v>12.040833</v>
+        <v>12.040832999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1268.420000</v>
+        <v>1268.42</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-582.441000</v>
+        <v>-582.44100000000003</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>43357.503885</v>
+        <v>43357.503884999998</v>
       </c>
       <c r="BT14" s="1">
         <v>12.043751</v>
       </c>
       <c r="BU14" s="1">
-        <v>1416.820000</v>
+        <v>1416.82</v>
       </c>
       <c r="BV14" s="1">
-        <v>-812.036000</v>
+        <v>-812.03599999999994</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>43368.308239</v>
+        <v>43368.308238999998</v>
       </c>
       <c r="BY14" s="1">
         <v>12.046752</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1581.050000</v>
+        <v>1581.05</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1052.440000</v>
+        <v>-1052.44</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>43380.473582</v>
+        <v>43380.473581999999</v>
       </c>
       <c r="CD14" s="1">
         <v>12.050132</v>
       </c>
       <c r="CE14" s="1">
-        <v>1997.770000</v>
+        <v>1997.77</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1614.120000</v>
+        <v>-1614.12</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>43208.142610</v>
+        <v>43208.142610000003</v>
       </c>
       <c r="B15" s="1">
         <v>12.002262</v>
       </c>
       <c r="C15" s="1">
-        <v>910.721000</v>
+        <v>910.721</v>
       </c>
       <c r="D15" s="1">
-        <v>-175.040000</v>
+        <v>-175.04</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>43218.905270</v>
+        <v>43218.905270000003</v>
       </c>
       <c r="G15" s="1">
-        <v>12.005251</v>
+        <v>12.005250999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>924.340000</v>
+        <v>924.34</v>
       </c>
       <c r="I15" s="1">
-        <v>-150.155000</v>
+        <v>-150.155</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>43229.388248</v>
+        <v>43229.388248000003</v>
       </c>
       <c r="L15" s="1">
         <v>12.008163</v>
       </c>
       <c r="M15" s="1">
-        <v>944.912000</v>
+        <v>944.91200000000003</v>
       </c>
       <c r="N15" s="1">
-        <v>-110.968000</v>
+        <v>-110.968</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>43239.938121</v>
+        <v>43239.938120999999</v>
       </c>
       <c r="Q15" s="1">
         <v>12.011094</v>
       </c>
       <c r="R15" s="1">
-        <v>951.536000</v>
+        <v>951.53599999999994</v>
       </c>
       <c r="S15" s="1">
-        <v>-98.265000</v>
+        <v>-98.265000000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>43250.411458</v>
+        <v>43250.411458000002</v>
       </c>
       <c r="V15" s="1">
-        <v>12.014003</v>
+        <v>12.014003000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>958.560000</v>
+        <v>958.56</v>
       </c>
       <c r="X15" s="1">
-        <v>-86.911300</v>
+        <v>-86.911299999999997</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>43261.230876</v>
+        <v>43261.230876000001</v>
       </c>
       <c r="AA15" s="1">
         <v>12.017009</v>
       </c>
       <c r="AB15" s="1">
-        <v>966.861000</v>
+        <v>966.86099999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-79.328700</v>
+        <v>-79.328699999999998</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>43271.731182</v>
+        <v>43271.731182000003</v>
       </c>
       <c r="AF15" s="1">
-        <v>12.019925</v>
+        <v>12.019925000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>972.410000</v>
+        <v>972.41</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.587200</v>
+        <v>-79.587199999999996</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>43282.288528</v>
+        <v>43282.288527999997</v>
       </c>
       <c r="AK15" s="1">
-        <v>12.022858</v>
+        <v>12.022857999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>980.703000</v>
+        <v>980.70299999999997</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.910800</v>
+        <v>-87.910799999999995</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>43293.294785</v>
+        <v>43293.294784999998</v>
       </c>
       <c r="AP15" s="1">
-        <v>12.025915</v>
+        <v>12.025914999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>990.138000</v>
+        <v>990.13800000000003</v>
       </c>
       <c r="AR15" s="1">
-        <v>-103.267000</v>
+        <v>-103.267</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>43304.000899</v>
+        <v>43304.000898999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>12.028889</v>
+        <v>12.028888999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1001.720000</v>
+        <v>1001.72</v>
       </c>
       <c r="AW15" s="1">
-        <v>-125.092000</v>
+        <v>-125.092</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>43314.309286</v>
+        <v>43314.309286000003</v>
       </c>
       <c r="AZ15" s="1">
         <v>12.031753</v>
       </c>
       <c r="BA15" s="1">
-        <v>1011.430000</v>
+        <v>1011.43</v>
       </c>
       <c r="BB15" s="1">
-        <v>-144.063000</v>
+        <v>-144.06299999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>43325.066489</v>
+        <v>43325.066488999997</v>
       </c>
       <c r="BE15" s="1">
         <v>12.034741</v>
       </c>
       <c r="BF15" s="1">
-        <v>1056.840000</v>
+        <v>1056.8399999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-229.946000</v>
+        <v>-229.946</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>43335.548938</v>
@@ -4002,135 +4418,135 @@
         <v>12.037652</v>
       </c>
       <c r="BK15" s="1">
-        <v>1136.490000</v>
+        <v>1136.49</v>
       </c>
       <c r="BL15" s="1">
-        <v>-368.078000</v>
+        <v>-368.07799999999997</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>43347.392908</v>
+        <v>43347.392908000002</v>
       </c>
       <c r="BO15" s="1">
-        <v>12.040942</v>
+        <v>12.040941999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1268.420000</v>
+        <v>1268.42</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-582.473000</v>
+        <v>-582.47299999999996</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>43357.922017</v>
+        <v>43357.922016999997</v>
       </c>
       <c r="BT15" s="1">
-        <v>12.043867</v>
+        <v>12.043867000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1416.820000</v>
+        <v>1416.82</v>
       </c>
       <c r="BV15" s="1">
-        <v>-812.090000</v>
+        <v>-812.09</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>43368.756622</v>
+        <v>43368.756622000001</v>
       </c>
       <c r="BY15" s="1">
         <v>12.046877</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1580.970000</v>
+        <v>1580.97</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1052.520000</v>
+        <v>-1052.52</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>43381.003806</v>
+        <v>43381.003806000001</v>
       </c>
       <c r="CD15" s="1">
         <v>12.050279</v>
       </c>
       <c r="CE15" s="1">
-        <v>1996.010000</v>
+        <v>1996.01</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1613.950000</v>
+        <v>-1613.95</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>43208.824578</v>
       </c>
       <c r="B16" s="1">
-        <v>12.002451</v>
+        <v>12.002451000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>910.737000</v>
+        <v>910.73699999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>-174.969000</v>
+        <v>-174.96899999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>43219.254002</v>
+        <v>43219.254002000001</v>
       </c>
       <c r="G16" s="1">
         <v>12.005348</v>
       </c>
       <c r="H16" s="1">
-        <v>924.366000</v>
+        <v>924.36599999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-149.640000</v>
+        <v>-149.63999999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>43229.732935</v>
       </c>
       <c r="L16" s="1">
-        <v>12.008259</v>
+        <v>12.008259000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>944.812000</v>
+        <v>944.81200000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-110.881000</v>
+        <v>-110.881</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>43240.287303</v>
+        <v>43240.287302999997</v>
       </c>
       <c r="Q16" s="1">
         <v>12.011191</v>
       </c>
       <c r="R16" s="1">
-        <v>951.601000</v>
+        <v>951.601</v>
       </c>
       <c r="S16" s="1">
-        <v>-98.227100</v>
+        <v>-98.227099999999993</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>43251.068841</v>
@@ -4139,300 +4555,300 @@
         <v>12.014186</v>
       </c>
       <c r="W16" s="1">
-        <v>958.547000</v>
+        <v>958.54700000000003</v>
       </c>
       <c r="X16" s="1">
-        <v>-86.827800</v>
+        <v>-86.827799999999996</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>43261.617261</v>
+        <v>43261.617260999999</v>
       </c>
       <c r="AA16" s="1">
         <v>12.017116</v>
       </c>
       <c r="AB16" s="1">
-        <v>966.834000</v>
+        <v>966.83399999999995</v>
       </c>
       <c r="AC16" s="1">
-        <v>-79.310200</v>
+        <v>-79.310199999999995</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>43272.107152</v>
+        <v>43272.107151999997</v>
       </c>
       <c r="AF16" s="1">
-        <v>12.020030</v>
+        <v>12.02003</v>
       </c>
       <c r="AG16" s="1">
-        <v>972.109000</v>
+        <v>972.10900000000004</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.527400</v>
+        <v>-79.5274</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>43282.637216</v>
+        <v>43282.637216000003</v>
       </c>
       <c r="AK16" s="1">
         <v>12.022955</v>
       </c>
       <c r="AL16" s="1">
-        <v>980.699000</v>
+        <v>980.69899999999996</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.892500</v>
+        <v>-87.892499999999998</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>43293.656833</v>
+        <v>43293.656833000001</v>
       </c>
       <c r="AP16" s="1">
         <v>12.026016</v>
       </c>
       <c r="AQ16" s="1">
-        <v>990.123000</v>
+        <v>990.12300000000005</v>
       </c>
       <c r="AR16" s="1">
-        <v>-103.261000</v>
+        <v>-103.261</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>43304.361518</v>
+        <v>43304.361517999998</v>
       </c>
       <c r="AU16" s="1">
-        <v>12.028989</v>
+        <v>12.028988999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1001.720000</v>
+        <v>1001.72</v>
       </c>
       <c r="AW16" s="1">
-        <v>-125.115000</v>
+        <v>-125.11499999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>43314.733334</v>
+        <v>43314.733333999997</v>
       </c>
       <c r="AZ16" s="1">
-        <v>12.031870</v>
+        <v>12.03187</v>
       </c>
       <c r="BA16" s="1">
-        <v>1011.420000</v>
+        <v>1011.42</v>
       </c>
       <c r="BB16" s="1">
-        <v>-144.066000</v>
+        <v>-144.066</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>43325.367591</v>
+        <v>43325.367591000002</v>
       </c>
       <c r="BE16" s="1">
         <v>12.034824</v>
       </c>
       <c r="BF16" s="1">
-        <v>1056.850000</v>
+        <v>1056.8499999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-229.939000</v>
+        <v>-229.93899999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>43335.893658</v>
+        <v>43335.893658000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>12.037748</v>
+        <v>12.037748000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1136.440000</v>
+        <v>1136.44</v>
       </c>
       <c r="BL16" s="1">
-        <v>-368.093000</v>
+        <v>-368.09300000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>43347.813048</v>
+        <v>43347.813048000004</v>
       </c>
       <c r="BO16" s="1">
-        <v>12.041059</v>
+        <v>12.041059000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1268.420000</v>
+        <v>1268.42</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-582.491000</v>
+        <v>-582.49099999999999</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>43358.338656</v>
       </c>
       <c r="BT16" s="1">
-        <v>12.043983</v>
+        <v>12.043983000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1416.750000</v>
+        <v>1416.75</v>
       </c>
       <c r="BV16" s="1">
-        <v>-812.254000</v>
+        <v>-812.25400000000002</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>43369.178189</v>
+        <v>43369.178188999998</v>
       </c>
       <c r="BY16" s="1">
         <v>12.046994</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1580.970000</v>
+        <v>1580.97</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1052.640000</v>
+        <v>-1052.6400000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>43381.519181</v>
+        <v>43381.519181000003</v>
       </c>
       <c r="CD16" s="1">
-        <v>12.050422</v>
+        <v>12.050421999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>1997.150000</v>
+        <v>1997.15</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1613.660000</v>
+        <v>-1613.66</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>43209.171777</v>
+        <v>43209.171777000003</v>
       </c>
       <c r="B17" s="1">
-        <v>12.002548</v>
+        <v>12.002548000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>910.709000</v>
+        <v>910.70899999999995</v>
       </c>
       <c r="D17" s="1">
-        <v>-175.002000</v>
+        <v>-175.00200000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>43219.602148</v>
+        <v>43219.602147999998</v>
       </c>
       <c r="G17" s="1">
         <v>12.005445</v>
       </c>
       <c r="H17" s="1">
-        <v>924.414000</v>
+        <v>924.41399999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-149.422000</v>
+        <v>-149.422</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>43230.399062</v>
+        <v>43230.399061999997</v>
       </c>
       <c r="L17" s="1">
-        <v>12.008444</v>
+        <v>12.008444000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>944.813000</v>
+        <v>944.81299999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-110.893000</v>
+        <v>-110.893</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>43240.945000</v>
+        <v>43240.945</v>
       </c>
       <c r="Q17" s="1">
         <v>12.011374</v>
       </c>
       <c r="R17" s="1">
-        <v>951.565000</v>
+        <v>951.56500000000005</v>
       </c>
       <c r="S17" s="1">
-        <v>-98.277200</v>
+        <v>-98.277199999999993</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>43251.439354</v>
+        <v>43251.439354000002</v>
       </c>
       <c r="V17" s="1">
         <v>12.014289</v>
       </c>
       <c r="W17" s="1">
-        <v>958.593000</v>
+        <v>958.59299999999996</v>
       </c>
       <c r="X17" s="1">
-        <v>-86.807900</v>
+        <v>-86.807900000000004</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>43261.965979</v>
+        <v>43261.965979000001</v>
       </c>
       <c r="AA17" s="1">
         <v>12.017213</v>
       </c>
       <c r="AB17" s="1">
-        <v>966.762000</v>
+        <v>966.76199999999994</v>
       </c>
       <c r="AC17" s="1">
-        <v>-79.279200</v>
+        <v>-79.279200000000003</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>43272.451901</v>
       </c>
       <c r="AF17" s="1">
-        <v>12.020126</v>
+        <v>12.020125999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>972.359000</v>
+        <v>972.35900000000004</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.599800</v>
+        <v>-79.599800000000002</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>43282.985408</v>
@@ -4441,1101 +4857,1101 @@
         <v>12.023052</v>
       </c>
       <c r="AL17" s="1">
-        <v>980.687000</v>
+        <v>980.68700000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.881700</v>
+        <v>-87.881699999999995</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>43294.086369</v>
+        <v>43294.086368999997</v>
       </c>
       <c r="AP17" s="1">
         <v>12.026135</v>
       </c>
       <c r="AQ17" s="1">
-        <v>990.199000</v>
+        <v>990.19899999999996</v>
       </c>
       <c r="AR17" s="1">
-        <v>-103.291000</v>
+        <v>-103.291</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>43304.793508</v>
+        <v>43304.793508000002</v>
       </c>
       <c r="AU17" s="1">
         <v>12.029109</v>
       </c>
       <c r="AV17" s="1">
-        <v>1001.730000</v>
+        <v>1001.73</v>
       </c>
       <c r="AW17" s="1">
-        <v>-125.108000</v>
+        <v>-125.108</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>43315.028485</v>
+        <v>43315.028485000003</v>
       </c>
       <c r="AZ17" s="1">
         <v>12.031952</v>
       </c>
       <c r="BA17" s="1">
-        <v>1011.430000</v>
+        <v>1011.43</v>
       </c>
       <c r="BB17" s="1">
-        <v>-144.069000</v>
+        <v>-144.06899999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>43325.727159</v>
+        <v>43325.727159000002</v>
       </c>
       <c r="BE17" s="1">
         <v>12.034924</v>
       </c>
       <c r="BF17" s="1">
-        <v>1056.860000</v>
+        <v>1056.8599999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-229.943000</v>
+        <v>-229.94300000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>43336.283513</v>
+        <v>43336.283513000002</v>
       </c>
       <c r="BJ17" s="1">
-        <v>12.037857</v>
+        <v>12.037857000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1136.480000</v>
+        <v>1136.48</v>
       </c>
       <c r="BL17" s="1">
-        <v>-368.069000</v>
+        <v>-368.06900000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>43348.210313</v>
+        <v>43348.210313000003</v>
       </c>
       <c r="BO17" s="1">
-        <v>12.041170</v>
+        <v>12.041169999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1268.450000</v>
+        <v>1268.45</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-582.475000</v>
+        <v>-582.47500000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>43358.774603</v>
+        <v>43358.774602999998</v>
       </c>
       <c r="BT17" s="1">
-        <v>12.044104</v>
+        <v>12.044104000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1416.830000</v>
+        <v>1416.83</v>
       </c>
       <c r="BV17" s="1">
-        <v>-812.332000</v>
+        <v>-812.33199999999999</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>43369.601774</v>
+        <v>43369.601774000002</v>
       </c>
       <c r="BY17" s="1">
         <v>12.047112</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1581.160000</v>
+        <v>1581.16</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1052.560000</v>
+        <v>-1052.56</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>43382.075164</v>
+        <v>43382.075164000002</v>
       </c>
       <c r="CD17" s="1">
         <v>12.050576</v>
       </c>
       <c r="CE17" s="1">
-        <v>1997.960000</v>
+        <v>1997.96</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1614.140000</v>
+        <v>-1614.14</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>43209.513025</v>
       </c>
       <c r="B18" s="1">
-        <v>12.002643</v>
+        <v>12.002643000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>910.847000</v>
+        <v>910.84699999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>-175.182000</v>
+        <v>-175.18199999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>43220.264321</v>
+        <v>43220.264321000002</v>
       </c>
       <c r="G18" s="1">
-        <v>12.005629</v>
+        <v>12.005629000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>924.735000</v>
+        <v>924.73500000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-149.738000</v>
+        <v>-149.738</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>43230.771060</v>
+        <v>43230.771059999999</v>
       </c>
       <c r="L18" s="1">
-        <v>12.008548</v>
+        <v>12.008547999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>944.898000</v>
+        <v>944.89800000000002</v>
       </c>
       <c r="N18" s="1">
-        <v>-111.131000</v>
+        <v>-111.131</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>43241.332407</v>
+        <v>43241.332407000002</v>
       </c>
       <c r="Q18" s="1">
         <v>12.011481</v>
       </c>
       <c r="R18" s="1">
-        <v>951.535000</v>
+        <v>951.53499999999997</v>
       </c>
       <c r="S18" s="1">
-        <v>-98.326000</v>
+        <v>-98.325999999999993</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>43251.785594</v>
+        <v>43251.785594000001</v>
       </c>
       <c r="V18" s="1">
-        <v>12.014385</v>
+        <v>12.014385000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>958.492000</v>
+        <v>958.49199999999996</v>
       </c>
       <c r="X18" s="1">
-        <v>-86.915000</v>
+        <v>-86.915000000000006</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>43262.314140</v>
+        <v>43262.314140000002</v>
       </c>
       <c r="AA18" s="1">
-        <v>12.017309</v>
+        <v>12.017308999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>966.760000</v>
+        <v>966.76</v>
       </c>
       <c r="AC18" s="1">
-        <v>-79.242200</v>
+        <v>-79.242199999999997</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>43272.795598</v>
+        <v>43272.795597999997</v>
       </c>
       <c r="AF18" s="1">
-        <v>12.020221</v>
+        <v>12.020220999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>972.348000</v>
+        <v>972.34799999999996</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.585500</v>
+        <v>-79.585499999999996</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>43283.412959</v>
+        <v>43283.412959000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>12.023170</v>
+        <v>12.02317</v>
       </c>
       <c r="AL18" s="1">
-        <v>980.700000</v>
+        <v>980.7</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.913100</v>
+        <v>-87.9131</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>43294.378514</v>
+        <v>43294.378514000004</v>
       </c>
       <c r="AP18" s="1">
         <v>12.026216</v>
       </c>
       <c r="AQ18" s="1">
-        <v>990.206000</v>
+        <v>990.20600000000002</v>
       </c>
       <c r="AR18" s="1">
-        <v>-103.281000</v>
+        <v>-103.28100000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>43305.096102</v>
+        <v>43305.096102000003</v>
       </c>
       <c r="AU18" s="1">
-        <v>12.029193</v>
+        <v>12.029192999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1001.720000</v>
+        <v>1001.72</v>
       </c>
       <c r="AW18" s="1">
-        <v>-125.102000</v>
+        <v>-125.102</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>43315.388921</v>
+        <v>43315.388920999998</v>
       </c>
       <c r="AZ18" s="1">
         <v>12.032052</v>
       </c>
       <c r="BA18" s="1">
-        <v>1011.430000</v>
+        <v>1011.43</v>
       </c>
       <c r="BB18" s="1">
-        <v>-144.072000</v>
+        <v>-144.072</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>43326.086794</v>
+        <v>43326.086794000003</v>
       </c>
       <c r="BE18" s="1">
         <v>12.035024</v>
       </c>
       <c r="BF18" s="1">
-        <v>1056.850000</v>
+        <v>1056.8499999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-229.928000</v>
+        <v>-229.928</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>43336.660505</v>
       </c>
       <c r="BJ18" s="1">
-        <v>12.037961</v>
+        <v>12.037960999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1136.450000</v>
+        <v>1136.45</v>
       </c>
       <c r="BL18" s="1">
-        <v>-368.086000</v>
+        <v>-368.08600000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>43348.632905</v>
+        <v>43348.632904999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>12.041287</v>
+        <v>12.041287000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1268.460000</v>
+        <v>1268.46</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-582.487000</v>
+        <v>-582.48699999999997</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>43359.168555</v>
+        <v>43359.168554999997</v>
       </c>
       <c r="BT18" s="1">
-        <v>12.044213</v>
+        <v>12.044212999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1416.740000</v>
+        <v>1416.74</v>
       </c>
       <c r="BV18" s="1">
-        <v>-812.471000</v>
+        <v>-812.471</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>43370.024364</v>
+        <v>43370.024363999997</v>
       </c>
       <c r="BY18" s="1">
         <v>12.047229</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1581.010000</v>
+        <v>1581.01</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1052.460000</v>
+        <v>-1052.46</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>43382.602943</v>
+        <v>43382.602942999998</v>
       </c>
       <c r="CD18" s="1">
         <v>12.050723</v>
       </c>
       <c r="CE18" s="1">
-        <v>1996.270000</v>
+        <v>1996.27</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1613.980000</v>
+        <v>-1613.98</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>43210.221808</v>
+        <v>43210.221808000002</v>
       </c>
       <c r="B19" s="1">
         <v>12.002839</v>
       </c>
       <c r="C19" s="1">
-        <v>910.609000</v>
+        <v>910.60900000000004</v>
       </c>
       <c r="D19" s="1">
-        <v>-175.053000</v>
+        <v>-175.053</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>43220.637330</v>
+        <v>43220.637329999998</v>
       </c>
       <c r="G19" s="1">
-        <v>12.005733</v>
+        <v>12.005732999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>924.473000</v>
+        <v>924.47299999999996</v>
       </c>
       <c r="I19" s="1">
-        <v>-150.253000</v>
+        <v>-150.25299999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>43231.116803</v>
+        <v>43231.116802999997</v>
       </c>
       <c r="L19" s="1">
         <v>12.008644</v>
       </c>
       <c r="M19" s="1">
-        <v>944.934000</v>
+        <v>944.93399999999997</v>
       </c>
       <c r="N19" s="1">
-        <v>-110.927000</v>
+        <v>-110.92700000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>43241.682054</v>
+        <v>43241.682053999997</v>
       </c>
       <c r="Q19" s="1">
         <v>12.011578</v>
       </c>
       <c r="R19" s="1">
-        <v>951.504000</v>
+        <v>951.50400000000002</v>
       </c>
       <c r="S19" s="1">
-        <v>-98.328400</v>
+        <v>-98.328400000000002</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>43252.134283</v>
+        <v>43252.134282999999</v>
       </c>
       <c r="V19" s="1">
-        <v>12.014482</v>
+        <v>12.014481999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>958.625000</v>
+        <v>958.625</v>
       </c>
       <c r="X19" s="1">
-        <v>-86.903900</v>
+        <v>-86.903899999999993</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>43262.735740</v>
+        <v>43262.735739999996</v>
       </c>
       <c r="AA19" s="1">
         <v>12.017427</v>
       </c>
       <c r="AB19" s="1">
-        <v>966.761000</v>
+        <v>966.76099999999997</v>
       </c>
       <c r="AC19" s="1">
-        <v>-79.318200</v>
+        <v>-79.318200000000004</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>43273.221164</v>
+        <v>43273.221164000002</v>
       </c>
       <c r="AF19" s="1">
         <v>12.020339</v>
       </c>
       <c r="AG19" s="1">
-        <v>972.359000</v>
+        <v>972.35900000000004</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.554200</v>
+        <v>-79.554199999999994</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>43283.692739</v>
+        <v>43283.692738999998</v>
       </c>
       <c r="AK19" s="1">
-        <v>12.023248</v>
+        <v>12.023248000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>980.716000</v>
+        <v>980.71600000000001</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.901700</v>
+        <v>-87.901700000000005</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>43294.737155</v>
+        <v>43294.737155000003</v>
       </c>
       <c r="AP19" s="1">
         <v>12.026316</v>
       </c>
       <c r="AQ19" s="1">
-        <v>990.191000</v>
+        <v>990.19100000000003</v>
       </c>
       <c r="AR19" s="1">
-        <v>-103.267000</v>
+        <v>-103.267</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>43305.459666</v>
+        <v>43305.459666000002</v>
       </c>
       <c r="AU19" s="1">
         <v>12.029294</v>
       </c>
       <c r="AV19" s="1">
-        <v>1001.700000</v>
+        <v>1001.7</v>
       </c>
       <c r="AW19" s="1">
-        <v>-125.094000</v>
+        <v>-125.09399999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>43315.742692</v>
       </c>
       <c r="AZ19" s="1">
-        <v>12.032151</v>
+        <v>12.032151000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1011.410000</v>
+        <v>1011.41</v>
       </c>
       <c r="BB19" s="1">
-        <v>-144.069000</v>
+        <v>-144.06899999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>43326.824309</v>
+        <v>43326.824309000003</v>
       </c>
       <c r="BE19" s="1">
-        <v>12.035229</v>
+        <v>12.035228999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1056.840000</v>
+        <v>1056.8399999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-229.933000</v>
+        <v>-229.93299999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>43337.408935</v>
+        <v>43337.408934999999</v>
       </c>
       <c r="BJ19" s="1">
         <v>12.038169</v>
       </c>
       <c r="BK19" s="1">
-        <v>1136.480000</v>
+        <v>1136.48</v>
       </c>
       <c r="BL19" s="1">
-        <v>-368.050000</v>
+        <v>-368.05</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>43349.041113</v>
+        <v>43349.041112999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>12.041400</v>
+        <v>12.041399999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1268.450000</v>
+        <v>1268.45</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-582.455000</v>
+        <v>-582.45500000000004</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>43359.579642</v>
+        <v>43359.579641999997</v>
       </c>
       <c r="BT19" s="1">
         <v>12.044328</v>
       </c>
       <c r="BU19" s="1">
-        <v>1416.820000</v>
+        <v>1416.82</v>
       </c>
       <c r="BV19" s="1">
-        <v>-812.533000</v>
+        <v>-812.53300000000002</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>43370.441998</v>
+        <v>43370.441998000002</v>
       </c>
       <c r="BY19" s="1">
         <v>12.047345</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1581.010000</v>
+        <v>1581.01</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1052.570000</v>
+        <v>-1052.57</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>43383.430234</v>
+        <v>43383.430233999999</v>
       </c>
       <c r="CD19" s="1">
         <v>12.050953</v>
       </c>
       <c r="CE19" s="1">
-        <v>1996.190000</v>
+        <v>1996.19</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1615.460000</v>
+        <v>-1615.46</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>43210.569999</v>
+        <v>43210.569998999999</v>
       </c>
       <c r="B20" s="1">
         <v>12.002936</v>
       </c>
       <c r="C20" s="1">
-        <v>910.670000</v>
+        <v>910.67</v>
       </c>
       <c r="D20" s="1">
-        <v>-174.980000</v>
+        <v>-174.98</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>43220.980849</v>
       </c>
       <c r="G20" s="1">
-        <v>12.005828</v>
+        <v>12.005827999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>924.649000</v>
+        <v>924.649</v>
       </c>
       <c r="I20" s="1">
-        <v>-149.966000</v>
+        <v>-149.96600000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>43231.460005</v>
+        <v>43231.460005000001</v>
       </c>
       <c r="L20" s="1">
         <v>12.008739</v>
       </c>
       <c r="M20" s="1">
-        <v>944.795000</v>
+        <v>944.79499999999996</v>
       </c>
       <c r="N20" s="1">
-        <v>-110.924000</v>
+        <v>-110.92400000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>43242.032725</v>
+        <v>43242.032724999997</v>
       </c>
       <c r="Q20" s="1">
         <v>12.011676</v>
       </c>
       <c r="R20" s="1">
-        <v>951.515000</v>
+        <v>951.51499999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>-98.303900</v>
+        <v>-98.303899999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>43252.564311</v>
+        <v>43252.564311000002</v>
       </c>
       <c r="V20" s="1">
-        <v>12.014601</v>
+        <v>12.014601000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>958.616000</v>
+        <v>958.61599999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-86.949900</v>
+        <v>-86.9499</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>43263.015979</v>
+        <v>43263.015979000003</v>
       </c>
       <c r="AA20" s="1">
-        <v>12.017504</v>
+        <v>12.017504000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>966.744000</v>
+        <v>966.74400000000003</v>
       </c>
       <c r="AC20" s="1">
-        <v>-79.294600</v>
+        <v>-79.294600000000003</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>43273.492848</v>
+        <v>43273.492848000002</v>
       </c>
       <c r="AF20" s="1">
         <v>12.020415</v>
       </c>
       <c r="AG20" s="1">
-        <v>972.308000</v>
+        <v>972.30799999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.722000</v>
+        <v>-79.721999999999994</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>43284.043870</v>
+        <v>43284.043870000001</v>
       </c>
       <c r="AK20" s="1">
         <v>12.023346</v>
       </c>
       <c r="AL20" s="1">
-        <v>980.706000</v>
+        <v>980.70600000000002</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.921800</v>
+        <v>-87.921800000000005</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>43295.098703</v>
+        <v>43295.098703000003</v>
       </c>
       <c r="AP20" s="1">
-        <v>12.026416</v>
+        <v>12.026415999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>990.184000</v>
+        <v>990.18399999999997</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.292000</v>
+        <v>-103.292</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>43305.826177</v>
+        <v>43305.826177000003</v>
       </c>
       <c r="AU20" s="1">
         <v>12.029396</v>
       </c>
       <c r="AV20" s="1">
-        <v>1001.730000</v>
+        <v>1001.73</v>
       </c>
       <c r="AW20" s="1">
-        <v>-125.094000</v>
+        <v>-125.09399999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>43316.465893</v>
+        <v>43316.465893000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>12.032352</v>
+        <v>12.032351999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1011.410000</v>
+        <v>1011.41</v>
       </c>
       <c r="BB20" s="1">
-        <v>-144.071000</v>
+        <v>-144.071</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>43327.173990</v>
+        <v>43327.173990000003</v>
       </c>
       <c r="BE20" s="1">
         <v>12.035326</v>
       </c>
       <c r="BF20" s="1">
-        <v>1056.860000</v>
+        <v>1056.8599999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-229.958000</v>
+        <v>-229.958</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>43337.783949</v>
+        <v>43337.783948999997</v>
       </c>
       <c r="BJ20" s="1">
         <v>12.038273</v>
       </c>
       <c r="BK20" s="1">
-        <v>1136.500000</v>
+        <v>1136.5</v>
       </c>
       <c r="BL20" s="1">
-        <v>-368.092000</v>
+        <v>-368.09199999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>43349.452643</v>
+        <v>43349.452642999997</v>
       </c>
       <c r="BO20" s="1">
         <v>12.041515</v>
       </c>
       <c r="BP20" s="1">
-        <v>1268.430000</v>
+        <v>1268.43</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-582.437000</v>
+        <v>-582.43700000000001</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>43360.303806</v>
+        <v>43360.303806000004</v>
       </c>
       <c r="BT20" s="1">
-        <v>12.044529</v>
+        <v>12.044529000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1416.870000</v>
+        <v>1416.87</v>
       </c>
       <c r="BV20" s="1">
-        <v>-812.546000</v>
+        <v>-812.54600000000005</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>43371.200704</v>
+        <v>43371.200704000003</v>
       </c>
       <c r="BY20" s="1">
         <v>12.047556</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1581.080000</v>
+        <v>1581.08</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1052.540000</v>
+        <v>-1052.54</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>43383.639550</v>
+        <v>43383.63955</v>
       </c>
       <c r="CD20" s="1">
-        <v>12.051011</v>
+        <v>12.051011000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1997.640000</v>
+        <v>1997.64</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1615.410000</v>
+        <v>-1615.41</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>43210.905822</v>
+        <v>43210.905822000001</v>
       </c>
       <c r="B21" s="1">
         <v>12.003029</v>
       </c>
       <c r="C21" s="1">
-        <v>910.763000</v>
+        <v>910.76300000000003</v>
       </c>
       <c r="D21" s="1">
-        <v>-174.913000</v>
+        <v>-174.91300000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>43221.327760</v>
+        <v>43221.32776</v>
       </c>
       <c r="G21" s="1">
         <v>12.005924</v>
       </c>
       <c r="H21" s="1">
-        <v>924.845000</v>
+        <v>924.84500000000003</v>
       </c>
       <c r="I21" s="1">
-        <v>-149.764000</v>
+        <v>-149.76400000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>43231.876675</v>
       </c>
       <c r="L21" s="1">
-        <v>12.008855</v>
+        <v>12.008855000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>944.894000</v>
+        <v>944.89400000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-110.827000</v>
+        <v>-110.827</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>43242.471189</v>
+        <v>43242.471189000004</v>
       </c>
       <c r="Q21" s="1">
-        <v>12.011798</v>
+        <v>12.011798000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>951.537000</v>
+        <v>951.53700000000003</v>
       </c>
       <c r="S21" s="1">
-        <v>-98.325200</v>
+        <v>-98.325199999999995</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>43252.836119</v>
       </c>
       <c r="V21" s="1">
-        <v>12.014677</v>
+        <v>12.014677000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>958.575000</v>
+        <v>958.57500000000005</v>
       </c>
       <c r="X21" s="1">
-        <v>-86.909400</v>
+        <v>-86.909400000000005</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>43263.365163</v>
+        <v>43263.365163000002</v>
       </c>
       <c r="AA21" s="1">
-        <v>12.017601</v>
+        <v>12.017601000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>966.836000</v>
+        <v>966.83600000000001</v>
       </c>
       <c r="AC21" s="1">
-        <v>-79.279100</v>
+        <v>-79.2791</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>43273.835249</v>
+        <v>43273.835249000003</v>
       </c>
       <c r="AF21" s="1">
-        <v>12.020510</v>
+        <v>12.02051</v>
       </c>
       <c r="AG21" s="1">
-        <v>972.339000</v>
+        <v>972.33900000000006</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.561700</v>
+        <v>-79.561700000000002</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>43284.392063</v>
+        <v>43284.392062999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>12.023442</v>
+        <v>12.023441999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>980.686000</v>
+        <v>980.68600000000004</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.907400</v>
+        <v>-87.907399999999996</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>43295.816446</v>
+        <v>43295.816445999997</v>
       </c>
       <c r="AP21" s="1">
-        <v>12.026616</v>
+        <v>12.026616000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>990.208000</v>
+        <v>990.20799999999997</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.303000</v>
+        <v>-103.303</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>43306.550833</v>
+        <v>43306.550833000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>12.029597</v>
+        <v>12.029597000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1001.740000</v>
+        <v>1001.74</v>
       </c>
       <c r="AW21" s="1">
-        <v>-125.129000</v>
+        <v>-125.129</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>43316.841826</v>
+        <v>43316.841826000003</v>
       </c>
       <c r="AZ21" s="1">
         <v>12.032456</v>
       </c>
       <c r="BA21" s="1">
-        <v>1011.420000</v>
+        <v>1011.42</v>
       </c>
       <c r="BB21" s="1">
-        <v>-144.076000</v>
+        <v>-144.07599999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>43327.533588</v>
+        <v>43327.533587999998</v>
       </c>
       <c r="BE21" s="1">
-        <v>12.035426</v>
+        <v>12.035425999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1056.850000</v>
+        <v>1056.8499999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-229.947000</v>
+        <v>-229.947</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>43338.161366</v>
@@ -5544,105 +5960,105 @@
         <v>12.038378</v>
       </c>
       <c r="BK21" s="1">
-        <v>1136.450000</v>
+        <v>1136.45</v>
       </c>
       <c r="BL21" s="1">
-        <v>-368.107000</v>
+        <v>-368.10700000000003</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>43350.164550</v>
+        <v>43350.164550000001</v>
       </c>
       <c r="BO21" s="1">
         <v>12.041712</v>
       </c>
       <c r="BP21" s="1">
-        <v>1268.450000</v>
+        <v>1268.45</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-582.459000</v>
+        <v>-582.45899999999995</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>43360.435014</v>
+        <v>43360.435014000002</v>
       </c>
       <c r="BT21" s="1">
         <v>12.044565</v>
       </c>
       <c r="BU21" s="1">
-        <v>1416.960000</v>
+        <v>1416.96</v>
       </c>
       <c r="BV21" s="1">
-        <v>-812.645000</v>
+        <v>-812.64499999999998</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>43371.335787</v>
+        <v>43371.335787000004</v>
       </c>
       <c r="BY21" s="1">
-        <v>12.047593</v>
+        <v>12.047593000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1581.030000</v>
+        <v>1581.03</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1052.460000</v>
+        <v>-1052.46</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>43384.157897</v>
+        <v>43384.157896999997</v>
       </c>
       <c r="CD21" s="1">
         <v>12.051155</v>
       </c>
       <c r="CE21" s="1">
-        <v>1997.860000</v>
+        <v>1997.86</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1615.130000</v>
+        <v>-1615.13</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>43211.331359</v>
+        <v>43211.331359000003</v>
       </c>
       <c r="B22" s="1">
-        <v>12.003148</v>
+        <v>12.003147999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>910.666000</v>
+        <v>910.66600000000005</v>
       </c>
       <c r="D22" s="1">
-        <v>-175.057000</v>
+        <v>-175.05699999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>43221.752305</v>
+        <v>43221.752305000002</v>
       </c>
       <c r="G22" s="1">
-        <v>12.006042</v>
+        <v>12.006042000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>924.534000</v>
+        <v>924.53399999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-150.094000</v>
+        <v>-150.09399999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>43232.173251</v>
@@ -5651,226 +6067,226 @@
         <v>12.008937</v>
       </c>
       <c r="M22" s="1">
-        <v>944.910000</v>
+        <v>944.91</v>
       </c>
       <c r="N22" s="1">
-        <v>-110.975000</v>
+        <v>-110.97499999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>43242.767796</v>
       </c>
       <c r="Q22" s="1">
-        <v>12.011880</v>
+        <v>12.01188</v>
       </c>
       <c r="R22" s="1">
-        <v>951.532000</v>
+        <v>951.53200000000004</v>
       </c>
       <c r="S22" s="1">
-        <v>-98.299300</v>
+        <v>-98.299300000000002</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>43253.182827</v>
+        <v>43253.182826999997</v>
       </c>
       <c r="V22" s="1">
         <v>12.014773</v>
       </c>
       <c r="W22" s="1">
-        <v>958.508000</v>
+        <v>958.50800000000004</v>
       </c>
       <c r="X22" s="1">
-        <v>-86.887300</v>
+        <v>-86.887299999999996</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>43263.710874</v>
+        <v>43263.710873999997</v>
       </c>
       <c r="AA22" s="1">
         <v>12.017697</v>
       </c>
       <c r="AB22" s="1">
-        <v>966.833000</v>
+        <v>966.83299999999997</v>
       </c>
       <c r="AC22" s="1">
-        <v>-79.270100</v>
+        <v>-79.270099999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>43274.185387</v>
+        <v>43274.185386999998</v>
       </c>
       <c r="AF22" s="1">
         <v>12.020607</v>
       </c>
       <c r="AG22" s="1">
-        <v>972.245000</v>
+        <v>972.245</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.564200</v>
+        <v>-79.5642</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>43285.085468</v>
+        <v>43285.085467999997</v>
       </c>
       <c r="AK22" s="1">
-        <v>12.023635</v>
+        <v>12.023635000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>980.699000</v>
+        <v>980.69899999999996</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.899400</v>
+        <v>-87.8994</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>43296.176511</v>
+        <v>43296.176510999998</v>
       </c>
       <c r="AP22" s="1">
         <v>12.026716</v>
       </c>
       <c r="AQ22" s="1">
-        <v>990.203000</v>
+        <v>990.20299999999997</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.282000</v>
+        <v>-103.282</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>43306.915888</v>
+        <v>43306.915888000003</v>
       </c>
       <c r="AU22" s="1">
-        <v>12.029699</v>
+        <v>12.029699000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1001.730000</v>
+        <v>1001.73</v>
       </c>
       <c r="AW22" s="1">
-        <v>-125.122000</v>
+        <v>-125.122</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>43317.222172</v>
+        <v>43317.222172000002</v>
       </c>
       <c r="AZ22" s="1">
         <v>12.032562</v>
       </c>
       <c r="BA22" s="1">
-        <v>1011.410000</v>
+        <v>1011.41</v>
       </c>
       <c r="BB22" s="1">
-        <v>-144.081000</v>
+        <v>-144.08099999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>43328.209671</v>
+        <v>43328.209670999997</v>
       </c>
       <c r="BE22" s="1">
-        <v>12.035614</v>
+        <v>12.035614000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1056.860000</v>
+        <v>1056.8599999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-229.937000</v>
+        <v>-229.93700000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>43338.860230</v>
+        <v>43338.860229999998</v>
       </c>
       <c r="BJ22" s="1">
         <v>12.038572</v>
       </c>
       <c r="BK22" s="1">
-        <v>1136.500000</v>
+        <v>1136.5</v>
       </c>
       <c r="BL22" s="1">
-        <v>-368.095000</v>
+        <v>-368.09500000000003</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>43350.286073</v>
+        <v>43350.286073000003</v>
       </c>
       <c r="BO22" s="1">
         <v>12.041746</v>
       </c>
       <c r="BP22" s="1">
-        <v>1268.440000</v>
+        <v>1268.44</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-582.488000</v>
+        <v>-582.48800000000006</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>43360.873210</v>
+        <v>43360.873209999998</v>
       </c>
       <c r="BT22" s="1">
         <v>12.044687</v>
       </c>
       <c r="BU22" s="1">
-        <v>1417.110000</v>
+        <v>1417.11</v>
       </c>
       <c r="BV22" s="1">
-        <v>-812.668000</v>
+        <v>-812.66800000000001</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>43371.763834</v>
+        <v>43371.763833999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>12.047712</v>
+        <v>12.047712000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1580.990000</v>
+        <v>1580.99</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1052.580000</v>
+        <v>-1052.58</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>43384.705946</v>
+        <v>43384.705946000002</v>
       </c>
       <c r="CD22" s="1">
         <v>12.051307</v>
       </c>
       <c r="CE22" s="1">
-        <v>1997.070000</v>
+        <v>1997.07</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1616.000000</v>
+        <v>-1616</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>43211.609118</v>
       </c>
@@ -5878,405 +6294,405 @@
         <v>12.003225</v>
       </c>
       <c r="C23" s="1">
-        <v>910.541000</v>
+        <v>910.54100000000005</v>
       </c>
       <c r="D23" s="1">
-        <v>-174.886000</v>
+        <v>-174.886</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>43222.017202</v>
+        <v>43222.017202000003</v>
       </c>
       <c r="G23" s="1">
         <v>12.006116</v>
       </c>
       <c r="H23" s="1">
-        <v>924.216000</v>
+        <v>924.21600000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-150.107000</v>
+        <v>-150.107</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>43232.516979</v>
       </c>
       <c r="L23" s="1">
-        <v>12.009032</v>
+        <v>12.009031999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>944.708000</v>
+        <v>944.70799999999997</v>
       </c>
       <c r="N23" s="1">
-        <v>-110.995000</v>
+        <v>-110.995</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>43243.104580</v>
+        <v>43243.104579999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>12.011973</v>
+        <v>12.011972999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>951.521000</v>
+        <v>951.52099999999996</v>
       </c>
       <c r="S23" s="1">
-        <v>-98.329600</v>
+        <v>-98.329599999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>43253.523046</v>
+        <v>43253.523046000002</v>
       </c>
       <c r="V23" s="1">
         <v>12.014868</v>
       </c>
       <c r="W23" s="1">
-        <v>958.546000</v>
+        <v>958.54600000000005</v>
       </c>
       <c r="X23" s="1">
-        <v>-87.057500</v>
+        <v>-87.057500000000005</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>43264.408248</v>
       </c>
       <c r="AA23" s="1">
-        <v>12.017891</v>
+        <v>12.017891000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>966.839000</v>
+        <v>966.83900000000006</v>
       </c>
       <c r="AC23" s="1">
-        <v>-79.281400</v>
+        <v>-79.281400000000005</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>43274.879786</v>
+        <v>43274.879785999998</v>
       </c>
       <c r="AF23" s="1">
-        <v>12.020800</v>
+        <v>12.020799999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>972.252000</v>
+        <v>972.25199999999995</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.533300</v>
+        <v>-79.533299999999997</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>43285.436175</v>
+        <v>43285.436175000003</v>
       </c>
       <c r="AK23" s="1">
-        <v>12.023732</v>
+        <v>12.023732000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>980.692000</v>
+        <v>980.69200000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.901300</v>
+        <v>-87.901300000000006</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>43296.537103</v>
+        <v>43296.537103000002</v>
       </c>
       <c r="AP23" s="1">
         <v>12.026816</v>
       </c>
       <c r="AQ23" s="1">
-        <v>990.208000</v>
+        <v>990.20799999999997</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.283000</v>
+        <v>-103.283</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>43307.282927</v>
       </c>
       <c r="AU23" s="1">
-        <v>12.029801</v>
+        <v>12.029801000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1001.730000</v>
+        <v>1001.73</v>
       </c>
       <c r="AW23" s="1">
-        <v>-125.101000</v>
+        <v>-125.101</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>43317.892390</v>
+        <v>43317.892390000001</v>
       </c>
       <c r="AZ23" s="1">
         <v>12.032748</v>
       </c>
       <c r="BA23" s="1">
-        <v>1011.410000</v>
+        <v>1011.41</v>
       </c>
       <c r="BB23" s="1">
-        <v>-144.075000</v>
+        <v>-144.07499999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>43328.645124</v>
+        <v>43328.645124000002</v>
       </c>
       <c r="BE23" s="1">
-        <v>12.035735</v>
+        <v>12.035735000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1056.840000</v>
+        <v>1056.8399999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-229.952000</v>
+        <v>-229.952</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>43339.288774</v>
+        <v>43339.288774000001</v>
       </c>
       <c r="BJ23" s="1">
         <v>12.038691</v>
       </c>
       <c r="BK23" s="1">
-        <v>1136.440000</v>
+        <v>1136.44</v>
       </c>
       <c r="BL23" s="1">
-        <v>-368.122000</v>
+        <v>-368.12200000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>43350.693782</v>
+        <v>43350.693782000002</v>
       </c>
       <c r="BO23" s="1">
-        <v>12.041859</v>
+        <v>12.041859000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1268.460000</v>
+        <v>1268.46</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-582.447000</v>
+        <v>-582.447</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>43361.301720</v>
+        <v>43361.301720000003</v>
       </c>
       <c r="BT23" s="1">
-        <v>12.044806</v>
+        <v>12.044805999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1417.220000</v>
+        <v>1417.22</v>
       </c>
       <c r="BV23" s="1">
-        <v>-812.691000</v>
+        <v>-812.69100000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>43372.184956</v>
+        <v>43372.184955999997</v>
       </c>
       <c r="BY23" s="1">
         <v>12.047829</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1580.990000</v>
+        <v>1580.99</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1052.650000</v>
+        <v>-1052.6500000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>43385.237656</v>
+        <v>43385.237655999998</v>
       </c>
       <c r="CD23" s="1">
-        <v>12.051455</v>
+        <v>12.051455000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>1997.870000</v>
+        <v>1997.87</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1614.850000</v>
+        <v>-1614.85</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>43211.952351</v>
       </c>
       <c r="B24" s="1">
-        <v>12.003320</v>
+        <v>12.00332</v>
       </c>
       <c r="C24" s="1">
-        <v>910.621000</v>
+        <v>910.62099999999998</v>
       </c>
       <c r="D24" s="1">
-        <v>-175.063000</v>
+        <v>-175.06299999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>43222.361887</v>
+        <v>43222.361886999999</v>
       </c>
       <c r="G24" s="1">
         <v>12.006212</v>
       </c>
       <c r="H24" s="1">
-        <v>924.675000</v>
+        <v>924.67499999999995</v>
       </c>
       <c r="I24" s="1">
-        <v>-150.130000</v>
+        <v>-150.13</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>43232.860705</v>
+        <v>43232.860704999999</v>
       </c>
       <c r="L24" s="1">
         <v>12.009128</v>
       </c>
       <c r="M24" s="1">
-        <v>944.812000</v>
+        <v>944.81200000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-110.966000</v>
+        <v>-110.96599999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>43243.799507</v>
+        <v>43243.799507000003</v>
       </c>
       <c r="Q24" s="1">
         <v>12.012167</v>
       </c>
       <c r="R24" s="1">
-        <v>951.545000</v>
+        <v>951.54499999999996</v>
       </c>
       <c r="S24" s="1">
-        <v>-98.378300</v>
+        <v>-98.378299999999996</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>43254.210005</v>
+        <v>43254.210005000001</v>
       </c>
       <c r="V24" s="1">
         <v>12.015058</v>
       </c>
       <c r="W24" s="1">
-        <v>958.583000</v>
+        <v>958.58299999999997</v>
       </c>
       <c r="X24" s="1">
-        <v>-86.895200</v>
+        <v>-86.895200000000003</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>43264.757462</v>
+        <v>43264.757462000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>12.017988</v>
+        <v>12.017988000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>966.757000</v>
+        <v>966.75699999999995</v>
       </c>
       <c r="AC24" s="1">
-        <v>-79.308000</v>
+        <v>-79.308000000000007</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>43275.233929</v>
+        <v>43275.233929000002</v>
       </c>
       <c r="AF24" s="1">
-        <v>12.020898</v>
+        <v>12.020898000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>972.361000</v>
+        <v>972.36099999999999</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.528200</v>
+        <v>-79.528199999999998</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>43285.785821</v>
+        <v>43285.785820999998</v>
       </c>
       <c r="AK24" s="1">
-        <v>12.023829</v>
+        <v>12.023828999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>980.726000</v>
+        <v>980.726</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.976700</v>
+        <v>-87.976699999999994</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>43297.218606</v>
+        <v>43297.218606000002</v>
       </c>
       <c r="AP24" s="1">
-        <v>12.027005</v>
+        <v>12.027005000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>990.191000</v>
+        <v>990.19100000000003</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.284000</v>
+        <v>-103.28400000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>43307.904414</v>
+        <v>43307.904413999997</v>
       </c>
       <c r="AU24" s="1">
         <v>12.029973</v>
       </c>
       <c r="AV24" s="1">
-        <v>1001.710000</v>
+        <v>1001.71</v>
       </c>
       <c r="AW24" s="1">
-        <v>-125.130000</v>
+        <v>-125.13</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>43318.303537</v>
@@ -6285,58 +6701,58 @@
         <v>12.032862</v>
       </c>
       <c r="BA24" s="1">
-        <v>1011.430000</v>
+        <v>1011.43</v>
       </c>
       <c r="BB24" s="1">
-        <v>-144.077000</v>
+        <v>-144.077</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>43329.005251</v>
+        <v>43329.005251000002</v>
       </c>
       <c r="BE24" s="1">
-        <v>12.035835</v>
+        <v>12.035835000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1056.830000</v>
+        <v>1056.83</v>
       </c>
       <c r="BG24" s="1">
-        <v>-229.932000</v>
+        <v>-229.93199999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>43339.662261</v>
+        <v>43339.662260999998</v>
       </c>
       <c r="BJ24" s="1">
         <v>12.038795</v>
       </c>
       <c r="BK24" s="1">
-        <v>1136.460000</v>
+        <v>1136.46</v>
       </c>
       <c r="BL24" s="1">
-        <v>-368.019000</v>
+        <v>-368.01900000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>43351.091109</v>
+        <v>43351.091109000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>12.041970</v>
+        <v>12.041969999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1268.420000</v>
+        <v>1268.42</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-582.463000</v>
+        <v>-582.46299999999997</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>43361.725799</v>
@@ -6345,60 +6761,60 @@
         <v>12.044924</v>
       </c>
       <c r="BU24" s="1">
-        <v>1417.210000</v>
+        <v>1417.21</v>
       </c>
       <c r="BV24" s="1">
-        <v>-812.678000</v>
+        <v>-812.678</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>43372.670025</v>
+        <v>43372.670024999999</v>
       </c>
       <c r="BY24" s="1">
         <v>12.047964</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1581.090000</v>
+        <v>1581.09</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1052.590000</v>
+        <v>-1052.5899999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>43385.753001</v>
+        <v>43385.753000999997</v>
       </c>
       <c r="CD24" s="1">
         <v>12.051598</v>
       </c>
       <c r="CE24" s="1">
-        <v>1996.410000</v>
+        <v>1996.41</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1613.760000</v>
+        <v>-1613.76</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>43212.293634</v>
+        <v>43212.293634000001</v>
       </c>
       <c r="B25" s="1">
         <v>12.003415</v>
       </c>
       <c r="C25" s="1">
-        <v>910.662000</v>
+        <v>910.66200000000003</v>
       </c>
       <c r="D25" s="1">
-        <v>-174.940000</v>
+        <v>-174.94</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>43222.706608</v>
@@ -6407,497 +6823,498 @@
         <v>12.006307</v>
       </c>
       <c r="H25" s="1">
-        <v>924.458000</v>
+        <v>924.45799999999997</v>
       </c>
       <c r="I25" s="1">
-        <v>-150.039000</v>
+        <v>-150.03899999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>43233.551634</v>
+        <v>43233.551634000003</v>
       </c>
       <c r="L25" s="1">
-        <v>12.009320</v>
+        <v>12.009320000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>944.778000</v>
+        <v>944.77800000000002</v>
       </c>
       <c r="N25" s="1">
-        <v>-111.081000</v>
+        <v>-111.081</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>43244.148696</v>
+        <v>43244.148695999997</v>
       </c>
       <c r="Q25" s="1">
         <v>12.012264</v>
       </c>
       <c r="R25" s="1">
-        <v>951.538000</v>
+        <v>951.53800000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-98.347000</v>
+        <v>-98.346999999999994</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>43254.555221</v>
+        <v>43254.555221000002</v>
       </c>
       <c r="V25" s="1">
-        <v>12.015154</v>
+        <v>12.015154000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>958.671000</v>
+        <v>958.67100000000005</v>
       </c>
       <c r="X25" s="1">
-        <v>-86.852700</v>
+        <v>-86.852699999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>43265.109623</v>
+        <v>43265.109622999997</v>
       </c>
       <c r="AA25" s="1">
         <v>12.018086</v>
       </c>
       <c r="AB25" s="1">
-        <v>966.787000</v>
+        <v>966.78700000000003</v>
       </c>
       <c r="AC25" s="1">
-        <v>-79.325500</v>
+        <v>-79.325500000000005</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>43275.883724</v>
+        <v>43275.883723999999</v>
       </c>
       <c r="AF25" s="1">
         <v>12.021079</v>
       </c>
       <c r="AG25" s="1">
-        <v>972.239000</v>
+        <v>972.23900000000003</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.640200</v>
+        <v>-79.640199999999993</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>43286.678618</v>
+        <v>43286.678617999998</v>
       </c>
       <c r="AK25" s="1">
         <v>12.024077</v>
       </c>
       <c r="AL25" s="1">
-        <v>980.720000</v>
+        <v>980.72</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.896200</v>
+        <v>-87.896199999999993</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>43297.640764</v>
+        <v>43297.640764000003</v>
       </c>
       <c r="AP25" s="1">
         <v>12.027122</v>
       </c>
       <c r="AQ25" s="1">
-        <v>990.197000</v>
+        <v>990.197</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.272000</v>
+        <v>-103.27200000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>43308.039824</v>
+        <v>43308.039823999999</v>
       </c>
       <c r="AU25" s="1">
         <v>12.030011</v>
       </c>
       <c r="AV25" s="1">
-        <v>1001.720000</v>
+        <v>1001.72</v>
       </c>
       <c r="AW25" s="1">
-        <v>-125.090000</v>
+        <v>-125.09</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>43318.679039</v>
+        <v>43318.679039000002</v>
       </c>
       <c r="AZ25" s="1">
         <v>12.032966</v>
       </c>
       <c r="BA25" s="1">
-        <v>1011.410000</v>
+        <v>1011.41</v>
       </c>
       <c r="BB25" s="1">
-        <v>-144.055000</v>
+        <v>-144.05500000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>43329.366802</v>
+        <v>43329.366801999997</v>
       </c>
       <c r="BE25" s="1">
         <v>12.035935</v>
       </c>
       <c r="BF25" s="1">
-        <v>1056.840000</v>
+        <v>1056.8399999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-229.935000</v>
+        <v>-229.935</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>43340.036772</v>
+        <v>43340.036771999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>12.038899</v>
+        <v>12.038899000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1136.410000</v>
+        <v>1136.4100000000001</v>
       </c>
       <c r="BL25" s="1">
-        <v>-368.096000</v>
+        <v>-368.096</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>43351.520117</v>
       </c>
       <c r="BO25" s="1">
-        <v>12.042089</v>
+        <v>12.042089000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1268.450000</v>
+        <v>1268.45</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-582.468000</v>
+        <v>-582.46799999999996</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>43362.143432</v>
+        <v>43362.143431999997</v>
       </c>
       <c r="BT25" s="1">
-        <v>12.045040</v>
+        <v>12.04504</v>
       </c>
       <c r="BU25" s="1">
-        <v>1417.290000</v>
+        <v>1417.29</v>
       </c>
       <c r="BV25" s="1">
-        <v>-812.697000</v>
+        <v>-812.697</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>43373.049000</v>
+        <v>43373.048999999999</v>
       </c>
       <c r="BY25" s="1">
         <v>12.048069</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1581.080000</v>
+        <v>1581.08</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1052.620000</v>
+        <v>-1052.6199999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>43386.272807</v>
+        <v>43386.272807000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>12.051742</v>
+        <v>12.051742000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>1995.980000</v>
+        <v>1995.98</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1615.700000</v>
+        <v>-1615.7</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>43212.975100</v>
+        <v>43212.975100000003</v>
       </c>
       <c r="B26" s="1">
-        <v>12.003604</v>
+        <v>12.003603999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>910.555000</v>
+        <v>910.55499999999995</v>
       </c>
       <c r="D26" s="1">
-        <v>-175.263000</v>
+        <v>-175.26300000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>43223.394558</v>
       </c>
       <c r="G26" s="1">
-        <v>12.006498</v>
+        <v>12.006498000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>924.227000</v>
+        <v>924.22699999999998</v>
       </c>
       <c r="I26" s="1">
-        <v>-149.985000</v>
+        <v>-149.98500000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>43233.898833</v>
+        <v>43233.898832999999</v>
       </c>
       <c r="L26" s="1">
         <v>12.009416</v>
       </c>
       <c r="M26" s="1">
-        <v>944.752000</v>
+        <v>944.75199999999995</v>
       </c>
       <c r="N26" s="1">
-        <v>-110.940000</v>
+        <v>-110.94</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>43244.498836</v>
+        <v>43244.498835999999</v>
       </c>
       <c r="Q26" s="1">
         <v>12.012361</v>
       </c>
       <c r="R26" s="1">
-        <v>951.512000</v>
+        <v>951.51199999999994</v>
       </c>
       <c r="S26" s="1">
-        <v>-98.290900</v>
+        <v>-98.290899999999993</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>43254.898453</v>
+        <v>43254.898453000002</v>
       </c>
       <c r="V26" s="1">
-        <v>12.015250</v>
+        <v>12.01525</v>
       </c>
       <c r="W26" s="1">
-        <v>958.600000</v>
+        <v>958.6</v>
       </c>
       <c r="X26" s="1">
-        <v>-86.857500</v>
+        <v>-86.857500000000002</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>43265.766789</v>
+        <v>43265.766789000001</v>
       </c>
       <c r="AA26" s="1">
         <v>12.018269</v>
       </c>
       <c r="AB26" s="1">
-        <v>966.746000</v>
+        <v>966.74599999999998</v>
       </c>
       <c r="AC26" s="1">
-        <v>-79.316100</v>
+        <v>-79.316100000000006</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>43276.258201</v>
+        <v>43276.258200999997</v>
       </c>
       <c r="AF26" s="1">
-        <v>12.021183</v>
+        <v>12.021183000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>972.293000</v>
+        <v>972.29300000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.522600</v>
+        <v>-79.522599999999997</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>43287.069962</v>
+        <v>43287.069962000001</v>
       </c>
       <c r="AK26" s="1">
         <v>12.024186</v>
       </c>
       <c r="AL26" s="1">
-        <v>980.694000</v>
+        <v>980.69399999999996</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.921000</v>
+        <v>-87.921000000000006</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>43297.999835</v>
+        <v>43297.999835000002</v>
       </c>
       <c r="AP26" s="1">
         <v>12.027222</v>
       </c>
       <c r="AQ26" s="1">
-        <v>990.228000</v>
+        <v>990.22799999999995</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.271000</v>
+        <v>-103.271</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>43308.404382</v>
+        <v>43308.404382000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>12.030112</v>
+        <v>12.030112000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1001.720000</v>
+        <v>1001.72</v>
       </c>
       <c r="AW26" s="1">
-        <v>-125.102000</v>
+        <v>-125.102</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>43319.060463</v>
+        <v>43319.060463000002</v>
       </c>
       <c r="AZ26" s="1">
-        <v>12.033072</v>
+        <v>12.033072000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1011.390000</v>
+        <v>1011.39</v>
       </c>
       <c r="BB26" s="1">
-        <v>-144.070000</v>
+        <v>-144.07</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>43329.801793</v>
+        <v>43329.801792999999</v>
       </c>
       <c r="BE26" s="1">
         <v>12.036056</v>
       </c>
       <c r="BF26" s="1">
-        <v>1056.840000</v>
+        <v>1056.8399999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-229.935000</v>
+        <v>-229.935</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>43340.787714</v>
+        <v>43340.787713999998</v>
       </c>
       <c r="BJ26" s="1">
-        <v>12.039108</v>
+        <v>12.039108000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1136.460000</v>
+        <v>1136.46</v>
       </c>
       <c r="BL26" s="1">
-        <v>-368.077000</v>
+        <v>-368.077</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>43351.909478</v>
+        <v>43351.909478000001</v>
       </c>
       <c r="BO26" s="1">
         <v>12.042197</v>
       </c>
       <c r="BP26" s="1">
-        <v>1268.420000</v>
+        <v>1268.42</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-582.477000</v>
+        <v>-582.47699999999998</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>43362.573972</v>
+        <v>43362.573971999998</v>
       </c>
       <c r="BT26" s="1">
         <v>12.045159</v>
       </c>
       <c r="BU26" s="1">
-        <v>1417.420000</v>
+        <v>1417.42</v>
       </c>
       <c r="BV26" s="1">
-        <v>-812.577000</v>
+        <v>-812.577</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>43373.475559</v>
+        <v>43373.475558999999</v>
       </c>
       <c r="BY26" s="1">
         <v>12.048188</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1581.180000</v>
+        <v>1581.18</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1052.490000</v>
+        <v>-1052.49</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>43386.789638</v>
+        <v>43386.789638000002</v>
       </c>
       <c r="CD26" s="1">
         <v>12.051886</v>
       </c>
       <c r="CE26" s="1">
-        <v>1995.920000</v>
+        <v>1995.92</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1615.440000</v>
+        <v>-1615.44</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>